--- a/output/processed data.xlsx
+++ b/output/processed data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Std exit" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,8 @@
     <sheet name="Std exit threshold 30" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Dif exit no workers" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Dif exit workers" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="(fe)males" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="workers in offices" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
   <si>
     <t xml:space="preserve">Standard exit 1</t>
   </si>
@@ -95,6 +97,33 @@
   <si>
     <t xml:space="preserve">Different exits with workers</t>
   </si>
+  <si>
+    <t xml:space="preserve">All females or all men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage-female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% male</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% of workers inside offices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">workers-in-offices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% offices</t>
+  </si>
 </sst>
 </file>
 
@@ -109,6 +138,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,6 +160,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -174,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -183,15 +214,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -215,10 +242,10 @@
   <dimension ref="A2:L68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -226,923 +253,923 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>421</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <f aca="false">AVERAGE($B9:$B18)-30</f>
         <v>357.2</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="2" t="n">
         <f aca="false">MIN($B9:$B18)-30</f>
         <v>345</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,1)-30</f>
         <v>348.25</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,2)-30</f>
         <v>355</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,3)-30</f>
         <v>356</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="2" t="n">
         <f aca="false">MAX($B9:$B18)-30</f>
         <v>391</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">STDEV($B9:$B18)</f>
         <v>13.5712113599994</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false">AVERAGE($B19:$B28)-30</f>
         <v>357.4</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <f aca="false">MIN($B19:$B28)-30</f>
         <v>343</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,1)-30</f>
         <v>346</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,2)-30</f>
         <v>357.5</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,3)-30</f>
         <v>367</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">MAX($B19:$B28)-30</f>
         <v>374</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">STDEV($B19:$B28)</f>
         <v>12.2673912829456</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="2" t="n">
         <f aca="false">AVERAGE($B29:$B38)-30</f>
         <v>353.8</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="2" t="n">
         <f aca="false">MIN($B29:$B38)-30</f>
         <v>336</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,1)-30</f>
         <v>347.5</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,2)-30</f>
         <v>353.5</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,3)-30</f>
         <v>362.25</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="2" t="n">
         <f aca="false">MAX($B29:$B38)-30</f>
         <v>367</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <f aca="false">STDEV($B29:$B38)</f>
         <v>9.67011432771666</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="2" t="n">
         <f aca="false">AVERAGE($B39:$B48)-30</f>
         <v>346.1</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="2" t="n">
         <f aca="false">MIN($B39:$B48)-30</f>
         <v>325</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,1)-30</f>
         <v>344.25</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,2)-30</f>
         <v>346</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,3)-30</f>
         <v>351.75</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="2" t="n">
         <f aca="false">MAX($B39:$B48)-30</f>
         <v>360</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <f aca="false">STDEV($B39:$B48)</f>
         <v>10.7646540946645</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="2" t="n">
         <f aca="false">AVERAGE($B49:$B58)-30</f>
         <v>358.5</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="2" t="n">
         <f aca="false">MIN($B49:$B58)-30</f>
         <v>346</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,1)-30</f>
         <v>352.75</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,2)-30</f>
         <v>359</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,3)-30</f>
         <v>361</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="2" t="n">
         <f aca="false">MAX($B49:$B58)-30</f>
         <v>378</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <f aca="false">STDEV($B49:$B58)</f>
         <v>8.86002257333468</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="2" t="n">
         <f aca="false">AVERAGE($B59:$B68)-30</f>
         <v>355</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="2" t="n">
         <f aca="false">MIN($B59:$B68)-30</f>
         <v>339</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,1)-30</f>
         <v>346</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,2)-30</f>
         <v>359</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,3)-30</f>
         <v>362.75</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="2" t="n">
         <f aca="false">MAX($B59:$B68)-30</f>
         <v>366</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <f aca="false">STDEV($B59:$B68)</f>
         <v>10.2415276638248</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>404</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>403</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>394</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="2" t="n">
         <v>366</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="2" t="n">
         <v>397</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="2" t="n">
         <v>391</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="2" t="n">
         <v>391</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="2" t="n">
         <v>394</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="2" t="n">
         <v>408</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="2" t="n">
         <v>396</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="2" t="n">
         <v>369</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="2" t="n">
         <v>371</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="2" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1168,7 +1195,7 @@
       <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -1176,931 +1203,931 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <f aca="false">AVERAGE($B9:$B18)-30</f>
         <v>363.9</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="2" t="n">
         <f aca="false">MIN($B9:$B18)-30</f>
         <v>352</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,1)-30</f>
         <v>358.25</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,2)-30</f>
         <v>362.5</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,3)-30</f>
         <v>368.5</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="2" t="n">
         <f aca="false">MAX($B9:$B18)-30</f>
         <v>377</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">STDEV($B9:$B18)</f>
         <v>8.38583461691335</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>399</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false">AVERAGE($B19:$B28)-30</f>
         <v>366.1</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <f aca="false">MIN($B19:$B28)-30</f>
         <v>348</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,1)-30</f>
         <v>354.75</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,2)-30</f>
         <v>364</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,3)-30</f>
         <v>368</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">MAX($B19:$B28)-30</f>
         <v>415</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">STDEV($B19:$B28)</f>
         <v>19.0114000887187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="2" t="n">
         <f aca="false">AVERAGE($B29:$B38)-30</f>
         <v>357</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="2" t="n">
         <f aca="false">MIN($B29:$B38)-30</f>
         <v>344</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,1)-30</f>
         <v>349.5</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,2)-30</f>
         <v>357</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,3)-30</f>
         <v>360.75</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="2" t="n">
         <f aca="false">MAX($B29:$B38)-30</f>
         <v>380</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <f aca="false">STDEV($B29:$B38)</f>
         <v>10.4880884817015</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="2" t="n">
         <f aca="false">AVERAGE($B39:$B48)-30</f>
         <v>360.8</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="2" t="n">
         <f aca="false">MIN($B39:$B48)-30</f>
         <v>345</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,1)-30</f>
         <v>360.5</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,2)-30</f>
         <v>362.5</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,3)-30</f>
         <v>364.5</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="2" t="n">
         <f aca="false">MAX($B39:$B48)-30</f>
         <v>371</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <f aca="false">STDEV($B39:$B48)</f>
         <v>7.29992389610254</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="2" t="n">
         <f aca="false">AVERAGE($B49:$B58)-30</f>
         <v>347.7</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="2" t="n">
         <f aca="false">MIN($B49:$B58)-30</f>
         <v>337</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,1)-30</f>
         <v>345</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,2)-30</f>
         <v>347.5</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,3)-30</f>
         <v>350.75</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="2" t="n">
         <f aca="false">MAX($B49:$B58)-30</f>
         <v>363</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <f aca="false">STDEV($B49:$B58)</f>
         <v>7.49888880657217</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>397</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="2" t="n">
         <f aca="false">AVERAGE($B59:$B68)-30</f>
         <v>352.1</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="2" t="n">
         <f aca="false">MIN($B59:$B68)-30</f>
         <v>326</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,1)-30</f>
         <v>345.5</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,2)-30</f>
         <v>357.5</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,3)-30</f>
         <v>359</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="2" t="n">
         <f aca="false">MAX($B59:$B68)-30</f>
         <v>369</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <f aca="false">STDEV($B59:$B68)</f>
         <v>13.3037171079698</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>407</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>406</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>378</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>445</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>400</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>394</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="2" t="n">
         <v>410</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="2" t="n">
         <v>391</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="2" t="n">
         <v>401</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="2" t="n">
         <v>365</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="2" t="n">
         <v>399</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="2" t="n">
         <v>387</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="2" t="n">
         <v>356</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="2" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2119,7 +2146,7 @@
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -2127,931 +2154,931 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <f aca="false">AVERAGE($B9:$B18)-30</f>
         <v>360.4</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="2" t="n">
         <f aca="false">MIN($B9:$B18)-30</f>
         <v>346</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,1)-30</f>
         <v>358.25</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,2)-30</f>
         <v>362.5</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,3)-30</f>
         <v>365.75</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="2" t="n">
         <f aca="false">MAX($B9:$B18)-30</f>
         <v>369</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">STDEV($B9:$B18)</f>
         <v>8.31598193574009</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false">AVERAGE($B19:$B28)-30</f>
         <v>357</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <f aca="false">MIN($B19:$B28)-30</f>
         <v>337</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,1)-30</f>
         <v>349.25</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,2)-30</f>
         <v>360</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,3)-30</f>
         <v>363.75</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">MAX($B19:$B28)-30</f>
         <v>371</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">STDEV($B19:$B28)</f>
         <v>10.5514611942296</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>396</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="2" t="n">
         <f aca="false">AVERAGE($B29:$B38)-30</f>
         <v>354.8</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="2" t="n">
         <f aca="false">MIN($B29:$B38)-30</f>
         <v>344</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,1)-30</f>
         <v>348.25</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,2)-30</f>
         <v>353.5</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,3)-30</f>
         <v>361.25</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="2" t="n">
         <f aca="false">MAX($B29:$B38)-30</f>
         <v>371</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <f aca="false">STDEV($B29:$B38)</f>
         <v>8.63841549256704</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="2" t="n">
         <f aca="false">AVERAGE($B39:$B48)-30</f>
         <v>349.2</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="2" t="n">
         <f aca="false">MIN($B39:$B48)-30</f>
         <v>337</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,1)-30</f>
         <v>348.25</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,2)-30</f>
         <v>350</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,3)-30</f>
         <v>352.75</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="2" t="n">
         <f aca="false">MAX($B39:$B48)-30</f>
         <v>355</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <f aca="false">STDEV($B39:$B48)</f>
         <v>5.34997403939703</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>399</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="2" t="n">
         <f aca="false">AVERAGE($B49:$B58)-30</f>
         <v>350.7</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="2" t="n">
         <f aca="false">MIN($B49:$B58)-30</f>
         <v>338</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,1)-30</f>
         <v>342.25</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,2)-30</f>
         <v>348</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,3)-30</f>
         <v>358.75</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="2" t="n">
         <f aca="false">MAX($B49:$B58)-30</f>
         <v>367</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <f aca="false">STDEV($B49:$B58)</f>
         <v>10.8428163623049</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="2" t="n">
         <f aca="false">AVERAGE($B59:$B68)-30</f>
         <v>354.1</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="2" t="n">
         <f aca="false">MIN($B59:$B68)-30</f>
         <v>338</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,1)-30</f>
         <v>347.25</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,2)-30</f>
         <v>349</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,3)-30</f>
         <v>356.5</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="2" t="n">
         <f aca="false">MAX($B59:$B68)-30</f>
         <v>390</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <f aca="false">STDEV($B59:$B68)</f>
         <v>14.7229978831305</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>387</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>401</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>390</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>394</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>396</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>378</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="2" t="n">
         <v>401</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="2" t="n">
         <v>367</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="2" t="n">
         <v>378</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="2" t="n">
         <v>369</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="2" t="n">
         <v>397</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="2" t="n">
         <v>396</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="2" t="n">
         <v>378</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="2" t="n">
         <v>420</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="2" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3070,7 +3097,7 @@
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -3078,931 +3105,931 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>405</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <f aca="false">AVERAGE($B9:$B18)-30</f>
         <v>362.8</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="2" t="n">
         <f aca="false">MIN($B9:$B18)-30</f>
         <v>350</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,1)-30</f>
         <v>356.25</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,2)-30</f>
         <v>362</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,3)-30</f>
         <v>371</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="2" t="n">
         <f aca="false">MAX($B9:$B18)-30</f>
         <v>375</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">STDEV($B9:$B18)</f>
         <v>9.05293077160958</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>396</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false">AVERAGE($B19:$B28)-30</f>
         <v>366.3</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <f aca="false">MIN($B19:$B28)-30</f>
         <v>350</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,1)-30</f>
         <v>353.5</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,2)-30</f>
         <v>361.5</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,3)-30</f>
         <v>367.25</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">MAX($B19:$B28)-30</f>
         <v>417</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">STDEV($B19:$B28)</f>
         <v>19.8385147293508</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>387</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
         <v>0.4</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="2" t="n">
         <f aca="false">AVERAGE($B29:$B38)-30</f>
         <v>352.2</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="2" t="n">
         <f aca="false">MIN($B29:$B38)-30</f>
         <v>344</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,1)-30</f>
         <v>347.75</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,2)-30</f>
         <v>351.5</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,3)-30</f>
         <v>355</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="2" t="n">
         <f aca="false">MAX($B29:$B38)-30</f>
         <v>363</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <f aca="false">STDEV($B29:$B38)</f>
         <v>5.94044517598546</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>0.6</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="2" t="n">
         <f aca="false">AVERAGE($B39:$B48)-30</f>
         <v>368.9</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="2" t="n">
         <f aca="false">MIN($B39:$B48)-30</f>
         <v>352</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,1)-30</f>
         <v>361.25</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,2)-30</f>
         <v>364.5</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="2" t="n">
         <f aca="false">QUARTILE($B39:$B48,3)-30</f>
         <v>374.5</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="2" t="n">
         <f aca="false">MAX($B39:$B48)-30</f>
         <v>405</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12" s="2" t="n">
         <f aca="false">STDEV($B39:$B48)</f>
         <v>15.8426288503168</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>0.8</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="2" t="n">
         <f aca="false">AVERAGE($B49:$B58)-30</f>
         <v>354.9</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="2" t="n">
         <f aca="false">MIN($B49:$B58)-30</f>
         <v>334</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,1)-30</f>
         <v>348.5</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,2)-30</f>
         <v>352</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="2" t="n">
         <f aca="false">QUARTILE($B49:$B58,3)-30</f>
         <v>358</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="2" t="n">
         <f aca="false">MAX($B49:$B58)-30</f>
         <v>395</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13" s="2" t="n">
         <f aca="false">STDEV($B49:$B58)</f>
         <v>16.0862259920302</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>388</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="2" t="n">
         <f aca="false">AVERAGE($B59:$B68)-30</f>
         <v>349.2</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="2" t="n">
         <f aca="false">MIN($B59:$B68)-30</f>
         <v>338</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,1)-30</f>
         <v>345.25</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,2)-30</f>
         <v>350.5</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="2" t="n">
         <f aca="false">QUARTILE($B59:$B68,3)-30</f>
         <v>354</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="2" t="n">
         <f aca="false">MAX($B59:$B68)-30</f>
         <v>357</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14" s="2" t="n">
         <f aca="false">STDEV($B59:$B68)</f>
         <v>6.47731082746193</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>403</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>402</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>394</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>447</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>409</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="2" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="2" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+      <c r="A39" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+      <c r="A40" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40" s="2" t="n">
         <v>397</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+      <c r="A41" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41" s="2" t="n">
         <v>413</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+      <c r="A42" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="2" t="n">
         <v>435</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+      <c r="A43" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="2" t="n">
         <v>392</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+      <c r="A44" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="2" t="n">
         <v>391</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+      <c r="A45" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="2" t="n">
         <v>407</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+      <c r="A46" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="2" t="n">
         <v>383</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+      <c r="A47" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="2" t="n">
         <v>394</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+      <c r="A48" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="2" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+      <c r="A49" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="2" t="n">
         <v>425</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+      <c r="A50" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="2" t="n">
         <v>389</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+      <c r="A51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+      <c r="A52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="2" t="n">
         <v>364</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+      <c r="A53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+      <c r="A54" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+      <c r="A55" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+      <c r="A56" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="2" t="n">
         <v>378</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+      <c r="A57" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="2" t="n">
         <v>391</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+      <c r="A58" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="2" t="n">
         <v>80</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="n">
+      <c r="A59" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="n">
+      <c r="A60" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="2" t="n">
         <v>387</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="n">
+      <c r="A61" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="n">
+      <c r="A62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="C62" s="0" t="n">
+      <c r="C62" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="n">
+      <c r="A63" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="n">
+      <c r="A64" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C64" s="0" t="n">
+      <c r="C64" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="n">
+      <c r="A65" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="2" t="n">
         <v>376</v>
       </c>
-      <c r="C65" s="0" t="n">
+      <c r="C65" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="n">
+      <c r="A66" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="C66" s="0" t="n">
+      <c r="C66" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="n">
+      <c r="A67" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="2" t="n">
         <v>371</v>
       </c>
-      <c r="C67" s="0" t="n">
+      <c r="C67" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="n">
+      <c r="A68" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="C68" s="0" t="n">
+      <c r="C68" s="2" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4021,7 +4048,7 @@
       <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
@@ -4029,516 +4056,516 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>500</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="2" t="n">
         <v>449</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="n">
+      <c r="E9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="2" t="n">
         <f aca="false">AVERAGE($B9:$B18)-30</f>
         <v>411.9</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="2" t="n">
         <f aca="false">MIN($B9:$B18)-30</f>
         <v>385</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,1)-30</f>
         <v>411.25</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,2)-30</f>
         <v>417.5</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,3)-30</f>
         <v>419</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="2" t="n">
         <f aca="false">MAX($B9:$B18)-30</f>
         <v>422</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9" s="2" t="n">
         <f aca="false">STDEV($B9:$B18)</f>
         <v>12.6618411861081</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="2" t="n">
         <v>415</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="n">
+      <c r="E10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="2" t="n">
         <f aca="false">AVERAGE($B19:$B28)-30</f>
         <v>335.6</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="2" t="n">
         <f aca="false">MIN($B19:$B28)-30</f>
         <v>312</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,1)-30</f>
         <v>333</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,2)-30</f>
         <v>334.5</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,3)-30</f>
         <v>342.5</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="2" t="n">
         <f aca="false">MAX($B19:$B28)-30</f>
         <v>356</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10" s="2" t="n">
         <f aca="false">STDEV($B19:$B28)</f>
         <v>11.7681302205953</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="2" t="n">
         <v>451</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="4" t="n">
+      <c r="E11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="2" t="n">
         <f aca="false">AVERAGE($B29:$B38)-30</f>
         <v>453.9</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="2" t="n">
         <f aca="false">MIN($B29:$B38)-30</f>
         <v>441</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,1)-30</f>
         <v>448.25</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,2)-30</f>
         <v>454.5</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="2" t="n">
         <f aca="false">QUARTILE($B29:$B38,3)-30</f>
         <v>460.25</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="2" t="n">
         <f aca="false">MAX($B29:$B38)-30</f>
         <v>463</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11" s="2" t="n">
         <f aca="false">STDEV($B29:$B38)</f>
         <v>7.43041796341976</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="2" t="n">
         <v>445</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="2" t="n">
         <v>440</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="2" t="n">
         <v>447</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="A15" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="2" t="n">
         <v>449</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="A16" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="2" t="n">
         <v>452</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="A17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="2" t="n">
         <v>423</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="A18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="2" t="n">
         <v>448</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="A19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="2" t="n">
         <v>356</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="A20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="2" t="n">
         <v>365</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="A21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="2" t="n">
         <v>374</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="A22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="2" t="n">
         <v>364</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="A23" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="2" t="n">
         <v>386</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="2" t="n">
         <v>342</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="2" t="n">
         <v>368</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="2" t="n">
         <v>363</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="A29" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="2" t="n">
         <v>471</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+      <c r="A30" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="2" t="n">
         <v>491</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+      <c r="A31" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="2" t="n">
         <v>477</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="A32" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="2" t="n">
         <v>476</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="A33" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="2" t="n">
         <v>484</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+      <c r="A34" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34" s="2" t="n">
         <v>493</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+      <c r="A35" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35" s="2" t="n">
         <v>488</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+      <c r="A36" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36" s="2" t="n">
         <v>482</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+      <c r="A37" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37" s="2" t="n">
         <v>492</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+      <c r="A38" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38" s="2" t="n">
         <v>485</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="2" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -4553,95 +4580,627 @@
   </sheetPr>
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>450</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>445</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="false">AVERAGE($B9:$B18)-30</f>
+        <v>410.8</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <f aca="false">MIN($B9:$B18)-30</f>
+        <v>399</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <f aca="false">QUARTILE($B9:$B18,1)-30</f>
+        <v>404.75</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">QUARTILE($B9:$B18,2)-30</f>
+        <v>409.5</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">QUARTILE($B9:$B18,3)-30</f>
+        <v>414.25</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <f aca="false">MAX($B9:$B18)-30</f>
+        <v>427</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <f aca="false">STDEV($B9:$B18)</f>
+        <v>8.63841549256704</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>429</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">AVERAGE($B19:$B28)-30</f>
+        <v>357.5</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">MIN($B19:$B28)-30</f>
+        <v>342</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">QUARTILE($B19:$B28,1)-30</f>
+        <v>348</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">QUARTILE($B19:$B28,2)-30</f>
+        <v>357</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">QUARTILE($B19:$B28,3)-30</f>
+        <v>362.75</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">MAX($B19:$B28)-30</f>
+        <v>376</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <f aca="false">STDEV($B19:$B28)</f>
+        <v>11.7213006483448</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>457</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">AVERAGE($B29:$B38)-30</f>
+        <v>385.9</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">MIN($B29:$B38)-30</f>
+        <v>349</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">QUARTILE($B29:$B38,1)-30</f>
+        <v>361.75</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">QUARTILE($B29:$B38,2)-30</f>
+        <v>383</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">QUARTILE($B29:$B38,3)-30</f>
+        <v>402.5</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">MAX($B29:$B38)-30</f>
+        <v>437</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <f aca="false">STDEV($B29:$B38)</f>
+        <v>29.0954368319921</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>434</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>437</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>442</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>439</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>452</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>440</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>433</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>406</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>394</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>389</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>376</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>372</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>375</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>386</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>405</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>467</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>451</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>418</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>408</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>379</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>435</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>425</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>385</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>403</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:L28"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E3" s="3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="2" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4650,41 +5209,41 @@
         <v>1</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>445</v>
+        <v>361</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <f aca="false">AVERAGE($B9:$B18)-30</f>
-        <v>410.8</v>
-      </c>
-      <c r="G9" s="0" t="n">
+        <v>332.8</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <f aca="false">MIN($B9:$B18)-30</f>
-        <v>399</v>
-      </c>
-      <c r="H9" s="0" t="n">
+        <v>328</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,1)-30</f>
-        <v>404.75</v>
-      </c>
-      <c r="I9" s="0" t="n">
+        <v>330.25</v>
+      </c>
+      <c r="I9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,2)-30</f>
-        <v>409.5</v>
-      </c>
-      <c r="J9" s="0" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="J9" s="2" t="n">
         <f aca="false">QUARTILE($B9:$B18,3)-30</f>
-        <v>414.25</v>
-      </c>
-      <c r="K9" s="0" t="n">
+        <v>335.75</v>
+      </c>
+      <c r="K9" s="2" t="n">
         <f aca="false">MAX($B9:$B18)-30</f>
-        <v>427</v>
-      </c>
-      <c r="L9" s="0" t="n">
+        <v>336</v>
+      </c>
+      <c r="L9" s="2" t="n">
         <f aca="false">STDEV($B9:$B18)</f>
-        <v>8.63841549256704</v>
+        <v>3.0840089349921</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,41 +5251,41 @@
         <v>2</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>429</v>
+        <v>366</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <f aca="false">AVERAGE($B19:$B28)-30</f>
-        <v>357.5</v>
-      </c>
-      <c r="G10" s="0" t="n">
+        <v>366</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <f aca="false">MIN($B19:$B28)-30</f>
-        <v>342</v>
-      </c>
-      <c r="H10" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="H10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,1)-30</f>
-        <v>348</v>
-      </c>
-      <c r="I10" s="0" t="n">
+        <v>355.75</v>
+      </c>
+      <c r="I10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,2)-30</f>
-        <v>357</v>
-      </c>
-      <c r="J10" s="0" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="J10" s="2" t="n">
         <f aca="false">QUARTILE($B19:$B28,3)-30</f>
-        <v>362.75</v>
-      </c>
-      <c r="K10" s="0" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="K10" s="2" t="n">
         <f aca="false">MAX($B19:$B28)-30</f>
-        <v>376</v>
-      </c>
-      <c r="L10" s="0" t="n">
+        <v>403</v>
+      </c>
+      <c r="L10" s="2" t="n">
         <f aca="false">STDEV($B19:$B28)</f>
-        <v>11.7213006483448</v>
+        <v>16.6199344830905</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,41 +5293,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>457</v>
+        <v>366</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <f aca="false">AVERAGE($B29:$B38)-30</f>
-        <v>385.9</v>
-      </c>
-      <c r="G11" s="0" t="n">
-        <f aca="false">MIN($B29:$B38)-30</f>
-        <v>349</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <f aca="false">QUARTILE($B29:$B38,1)-30</f>
-        <v>361.75</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <f aca="false">QUARTILE($B29:$B38,2)-30</f>
-        <v>383</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">QUARTILE($B29:$B38,3)-30</f>
-        <v>402.5</v>
-      </c>
-      <c r="K11" s="0" t="n">
-        <f aca="false">MAX($B29:$B38)-30</f>
-        <v>437</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <f aca="false">STDEV($B29:$B38)</f>
-        <v>29.0954368319921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,46 +5304,43 @@
         <v>4</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>434</v>
+        <v>359</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>437</v>
+        <v>360</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>442</v>
+        <v>366</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>439</v>
+        <v>364</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4823,10 +5348,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>452</v>
+        <v>363</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,10 +5359,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>440</v>
+        <v>365</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4845,10 +5370,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>433</v>
+        <v>358</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,10 +5381,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4867,10 +5392,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4878,10 +5403,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,10 +5414,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4900,10 +5425,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4911,10 +5436,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4922,10 +5447,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,10 +5458,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,10 +5469,10 @@
         <v>19</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,10 +5480,495 @@
         <v>20</v>
       </c>
       <c r="B28" s="0" t="n">
+        <v>399</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:L58"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>450</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>389</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <f aca="false">AVERAGE($B9:$B18)-30</f>
+        <v>362</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <f aca="false">MIN($B9:$B18)-30</f>
+        <v>356</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <f aca="false">QUARTILE($B9:$B18,1)-30</f>
+        <v>357.25</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <f aca="false">QUARTILE($B9:$B18,2)-30</f>
+        <v>358.5</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <f aca="false">QUARTILE($B9:$B18,3)-30</f>
+        <v>366.5</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <f aca="false">MAX($B9:$B18)-30</f>
+        <v>375</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <f aca="false">STDEV($B9:$B18)</f>
+        <v>6.86375342732467</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <f aca="false">AVERAGE($B19:$B28)-30</f>
+        <v>370</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <f aca="false">MIN($B19:$B28)-30</f>
+        <v>346</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <f aca="false">QUARTILE($B19:$B28,1)-30</f>
+        <v>353.25</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <f aca="false">QUARTILE($B19:$B28,2)-30</f>
+        <v>359</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <f aca="false">QUARTILE($B19:$B28,3)-30</f>
+        <v>375.5</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <f aca="false">MAX($B19:$B28)-30</f>
+        <v>425</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <f aca="false">STDEV($B19:$B28)</f>
+        <v>25.4907390590735</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <f aca="false">AVERAGE($B29:$B38)-30</f>
+        <v>360.5</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <f aca="false">MIN($B29:$B38)-30</f>
+        <v>348</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <f aca="false">QUARTILE($B29:$B38,1)-30</f>
+        <v>355.75</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <f aca="false">QUARTILE($B29:$B38,2)-30</f>
+        <v>361.5</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <f aca="false">QUARTILE($B29:$B38,3)-30</f>
+        <v>364.25</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <f aca="false">MAX($B29:$B38)-30</f>
+        <v>373</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <f aca="false">STDEV($B29:$B38)</f>
+        <v>8.7337150043826</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <f aca="false">AVERAGE($B39:$B48)-30</f>
+        <v>369</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <f aca="false">MIN($B39:$B48)-30</f>
+        <v>347</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <f aca="false">QUARTILE($B39:$B48,1)-30</f>
+        <v>360.25</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <f aca="false">QUARTILE($B39:$B48,2)-30</f>
+        <v>366.5</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <f aca="false">QUARTILE($B39:$B48,3)-30</f>
+        <v>372.5</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <f aca="false">MAX($B39:$B48)-30</f>
+        <v>413</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <f aca="false">STDEV($B39:$B48)</f>
+        <v>17.6760981114171</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>405</v>
       </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <f aca="false">AVERAGE($B49:$B58)-30</f>
+        <v>359.6</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <f aca="false">MIN($B49:$B58)-30</f>
+        <v>342</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <f aca="false">QUARTILE($B49:$B58,1)-30</f>
+        <v>358.5</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <f aca="false">QUARTILE($B49:$B58,2)-30</f>
+        <v>361</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <f aca="false">QUARTILE($B49:$B58,3)-30</f>
+        <v>363</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <f aca="false">MAX($B49:$B58)-30</f>
+        <v>368</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <f aca="false">STDEV($B49:$B58)</f>
+        <v>7.74883503789082</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>385</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>455</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>384</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>383</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>433</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>383</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>376</v>
+      </c>
       <c r="C28" s="0" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4966,10 +5976,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>467</v>
+        <v>378</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,10 +5987,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4988,10 +5998,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4999,10 +6009,10 @@
         <v>24</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5010,10 +6020,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,10 +6031,10 @@
         <v>26</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,10 +6042,10 @@
         <v>27</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>435</v>
+        <v>391</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5043,10 +6053,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5057,7 +6067,7 @@
         <v>385</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5065,16 +6075,236 @@
         <v>30</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>3</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>407</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>443</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>396</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>391</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>404</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>392</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>398</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>372</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>382</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>393</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/output/processed data.xlsx
+++ b/output/processed data.xlsx
@@ -1,24 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sol Astrum\Documents\GitHub\ABM_Bonanza\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427E5C57-1A2A-4129-A614-7692B495DAC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13094" tabRatio="500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Std exit" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Std exit threshold 10" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Std exit threshold 20" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Std exit threshold 30" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Dif exit no workers" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Dif exit workers" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="(fe)males" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="workers in offices" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Std exit" sheetId="1" r:id="rId1"/>
+    <sheet name="Std exit threshold 10" sheetId="2" r:id="rId2"/>
+    <sheet name="Std exit threshold 20" sheetId="3" r:id="rId3"/>
+    <sheet name="Std exit threshold 30" sheetId="4" r:id="rId4"/>
+    <sheet name="Dif exit no workers" sheetId="5" r:id="rId5"/>
+    <sheet name="Dif exit workers" sheetId="6" r:id="rId6"/>
+    <sheet name="(fe)males" sheetId="7" r:id="rId7"/>
+    <sheet name="workers in offices" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -29,111 +42,107 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="32">
   <si>
-    <t xml:space="preserve">Standard exit 1</t>
+    <t>Standard exit 1</t>
   </si>
   <si>
-    <t xml:space="preserve">n. visitors</t>
+    <t>n. visitors</t>
   </si>
   <si>
-    <t xml:space="preserve">n. workers</t>
+    <t>n. workers</t>
   </si>
   <si>
-    <t xml:space="preserve">% female</t>
+    <t>% female</t>
   </si>
   <si>
-    <t xml:space="preserve">vision</t>
+    <t>vision</t>
   </si>
   <si>
-    <t xml:space="preserve">alert threshold</t>
+    <t>alert threshold</t>
   </si>
   <si>
-    <t xml:space="preserve">[run number]</t>
+    <t>[run number]</t>
   </si>
   <si>
-    <t xml:space="preserve">[steps]</t>
+    <t>[steps]</t>
   </si>
   <si>
-    <t xml:space="preserve">% trained visitors</t>
+    <t>% trained visitors</t>
   </si>
   <si>
-    <t xml:space="preserve">% trained</t>
+    <t>% trained</t>
   </si>
   <si>
-    <t xml:space="preserve">Mean</t>
+    <t>Mean</t>
   </si>
   <si>
-    <t xml:space="preserve">Min</t>
+    <t>Min</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1 25%</t>
+    <t>Q1 25%</t>
   </si>
   <si>
-    <t xml:space="preserve">Q2 50%</t>
+    <t>Q2 50%</t>
   </si>
   <si>
-    <t xml:space="preserve">Q3 75%</t>
+    <t>Q3 75%</t>
   </si>
   <si>
-    <t xml:space="preserve">Max</t>
+    <t>Max</t>
   </si>
   <si>
-    <t xml:space="preserve">std dev</t>
+    <t>std dev</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard exit threshold 10</t>
+    <t>Standard exit threshold 10</t>
   </si>
   <si>
-    <t xml:space="preserve">Standard exit threshold 30</t>
+    <t>Standard exit threshold 30</t>
   </si>
   <si>
-    <t xml:space="preserve">Different exits, no workers</t>
+    <t>Different exits, no workers</t>
   </si>
   <si>
-    <t xml:space="preserve">default</t>
+    <t>default</t>
   </si>
   <si>
-    <t xml:space="preserve">exit</t>
+    <t>exit</t>
   </si>
   <si>
-    <t xml:space="preserve">Different exits with workers</t>
+    <t>Different exits with workers</t>
   </si>
   <si>
-    <t xml:space="preserve">All females or all men</t>
+    <t>All females or all men</t>
   </si>
   <si>
-    <t xml:space="preserve">percentage-female</t>
+    <t>percentage-female</t>
   </si>
   <si>
-    <t xml:space="preserve">sex</t>
+    <t>sex</t>
   </si>
   <si>
-    <t xml:space="preserve">100% male</t>
+    <t>100% male</t>
   </si>
   <si>
-    <t xml:space="preserve">100% female</t>
+    <t>100% female</t>
   </si>
   <si>
-    <t xml:space="preserve">% of workers inside offices</t>
+    <t>% of workers inside offices</t>
   </si>
   <si>
-    <t xml:space="preserve">% females</t>
+    <t>% females</t>
   </si>
   <si>
-    <t xml:space="preserve">workers-in-offices</t>
+    <t>workers-in-offices</t>
   </si>
   <si>
-    <t xml:space="preserve">% offices</t>
+    <t>% offices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -141,22 +150,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -172,7 +166,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -180,119 +174,382 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -327,857 +584,1036 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>421</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <f aca="false">AVERAGE($B9:$B18)-30</f>
+      <c r="F9" s="2">
+        <f>AVERAGE($B9:$B18)-30</f>
         <v>357.2</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">MIN($B9:$B18)-30</f>
+      <c r="G9" s="2">
+        <f>MIN($B9:$B18)-30</f>
         <v>345</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,1)-30</f>
+      <c r="H9" s="2">
+        <f>QUARTILE($B9:$B18,1)-30</f>
         <v>348.25</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,2)-30</f>
+      <c r="I9" s="2">
+        <f>QUARTILE($B9:$B18,2)-30</f>
         <v>355</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,3)-30</f>
+      <c r="J9" s="2">
+        <f>QUARTILE($B9:$B18,3)-30</f>
         <v>356</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">MAX($B9:$B18)-30</f>
+      <c r="K9" s="2">
+        <f>MAX($B9:$B18)-30</f>
         <v>391</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <f aca="false">STDEV($B9:$B18)</f>
-        <v>13.5712113599994</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="L9" s="2">
+        <f>STDEV($B9:$B18)</f>
+        <v>13.571211359999438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>377</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>0.2</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <f aca="false">AVERAGE($B19:$B28)-30</f>
+      <c r="F10" s="2">
+        <f>AVERAGE($B19:$B28)-30</f>
         <v>357.4</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">MIN($B19:$B28)-30</f>
+      <c r="G10" s="2">
+        <f>MIN($B19:$B28)-30</f>
         <v>343</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,1)-30</f>
+      <c r="H10" s="2">
+        <f>QUARTILE($B19:$B28,1)-30</f>
         <v>346</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,2)-30</f>
+      <c r="I10" s="2">
+        <f>QUARTILE($B19:$B28,2)-30</f>
         <v>357.5</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,3)-30</f>
+      <c r="J10" s="2">
+        <f>QUARTILE($B19:$B28,3)-30</f>
         <v>367</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">MAX($B19:$B28)-30</f>
+      <c r="K10" s="2">
+        <f>MAX($B19:$B28)-30</f>
         <v>374</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <f aca="false">STDEV($B19:$B28)</f>
-        <v>12.2673912829456</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="L10" s="2">
+        <f>STDEV($B19:$B28)</f>
+        <v>12.267391282945567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>382</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>0.4</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <f aca="false">AVERAGE($B29:$B38)-30</f>
+      <c r="F11" s="2">
+        <f>AVERAGE($B29:$B38)-30</f>
         <v>353.8</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">MIN($B29:$B38)-30</f>
+      <c r="G11" s="2">
+        <f>MIN($B29:$B38)-30</f>
         <v>336</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,1)-30</f>
+      <c r="H11" s="2">
+        <f>QUARTILE($B29:$B38,1)-30</f>
         <v>347.5</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,2)-30</f>
+      <c r="I11" s="2">
+        <f>QUARTILE($B29:$B38,2)-30</f>
         <v>353.5</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,3)-30</f>
+      <c r="J11" s="2">
+        <f>QUARTILE($B29:$B38,3)-30</f>
         <v>362.25</v>
       </c>
-      <c r="K11" s="2" t="n">
-        <f aca="false">MAX($B29:$B38)-30</f>
+      <c r="K11" s="2">
+        <f>MAX($B29:$B38)-30</f>
         <v>367</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <f aca="false">STDEV($B29:$B38)</f>
-        <v>9.67011432771666</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="L11" s="2">
+        <f>STDEV($B29:$B38)</f>
+        <v>9.6701143277166643</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>377</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>0.6</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <f aca="false">AVERAGE($B39:$B48)-30</f>
+      <c r="F12" s="2">
+        <f>AVERAGE($B39:$B48)-30</f>
         <v>346.1</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <f aca="false">MIN($B39:$B48)-30</f>
+      <c r="G12" s="2">
+        <f>MIN($B39:$B48)-30</f>
         <v>325</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,1)-30</f>
+      <c r="H12" s="2">
+        <f>QUARTILE($B39:$B48,1)-30</f>
         <v>344.25</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,2)-30</f>
+      <c r="I12" s="2">
+        <f>QUARTILE($B39:$B48,2)-30</f>
         <v>346</v>
       </c>
-      <c r="J12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,3)-30</f>
+      <c r="J12" s="2">
+        <f>QUARTILE($B39:$B48,3)-30</f>
         <v>351.75</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">MAX($B39:$B48)-30</f>
+      <c r="K12" s="2">
+        <f>MAX($B39:$B48)-30</f>
         <v>360</v>
       </c>
-      <c r="L12" s="2" t="n">
-        <f aca="false">STDEV($B39:$B48)</f>
-        <v>10.7646540946645</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="L12" s="2">
+        <f>STDEV($B39:$B48)</f>
+        <v>10.764654094664529</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>398</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>0.8</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <f aca="false">AVERAGE($B49:$B58)-30</f>
+      <c r="F13" s="2">
+        <f>AVERAGE($B49:$B58)-30</f>
         <v>358.5</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <f aca="false">MIN($B49:$B58)-30</f>
+      <c r="G13" s="2">
+        <f>MIN($B49:$B58)-30</f>
         <v>346</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,1)-30</f>
+      <c r="H13" s="2">
+        <f>QUARTILE($B49:$B58,1)-30</f>
         <v>352.75</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,2)-30</f>
+      <c r="I13" s="2">
+        <f>QUARTILE($B49:$B58,2)-30</f>
         <v>359</v>
       </c>
-      <c r="J13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,3)-30</f>
+      <c r="J13" s="2">
+        <f>QUARTILE($B49:$B58,3)-30</f>
         <v>361</v>
       </c>
-      <c r="K13" s="2" t="n">
-        <f aca="false">MAX($B49:$B58)-30</f>
+      <c r="K13" s="2">
+        <f>MAX($B49:$B58)-30</f>
         <v>378</v>
       </c>
-      <c r="L13" s="2" t="n">
-        <f aca="false">STDEV($B49:$B58)</f>
-        <v>8.86002257333468</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="L13" s="2">
+        <f>STDEV($B49:$B58)</f>
+        <v>8.8600225733346747</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>386</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <f aca="false">AVERAGE($B59:$B68)-30</f>
+      <c r="F14" s="2">
+        <f>AVERAGE($B59:$B68)-30</f>
         <v>355</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <f aca="false">MIN($B59:$B68)-30</f>
+      <c r="G14" s="2">
+        <f>MIN($B59:$B68)-30</f>
         <v>339</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,1)-30</f>
+      <c r="H14" s="2">
+        <f>QUARTILE($B59:$B68,1)-30</f>
         <v>346</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,2)-30</f>
+      <c r="I14" s="2">
+        <f>QUARTILE($B59:$B68,2)-30</f>
         <v>359</v>
       </c>
-      <c r="J14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,3)-30</f>
+      <c r="J14" s="2">
+        <f>QUARTILE($B59:$B68,3)-30</f>
         <v>362.75</v>
       </c>
-      <c r="K14" s="2" t="n">
-        <f aca="false">MAX($B59:$B68)-30</f>
+      <c r="K14" s="2">
+        <f>MAX($B59:$B68)-30</f>
         <v>366</v>
       </c>
-      <c r="L14" s="2" t="n">
-        <f aca="false">STDEV($B59:$B68)</f>
-        <v>10.2415276638248</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="L14" s="2">
+        <f>STDEV($B59:$B68)</f>
+        <v>10.241527663824812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>384</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>386</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="E16" s="2">
+        <v>421</v>
+      </c>
+      <c r="F16" s="2">
+        <v>383</v>
+      </c>
+      <c r="G16" s="2">
+        <v>379</v>
+      </c>
+      <c r="H16" s="2">
+        <v>375</v>
+      </c>
+      <c r="I16" s="2">
+        <v>391</v>
+      </c>
+      <c r="J16" s="2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>375</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="E17" s="2">
+        <v>377</v>
+      </c>
+      <c r="F17" s="2">
+        <v>379</v>
+      </c>
+      <c r="G17" s="2">
+        <v>390</v>
+      </c>
+      <c r="H17" s="2">
+        <v>382</v>
+      </c>
+      <c r="I17" s="2">
+        <v>382</v>
+      </c>
+      <c r="J17" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>386</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="E18" s="2">
+        <v>382</v>
+      </c>
+      <c r="F18" s="2">
+        <v>375</v>
+      </c>
+      <c r="G18" s="2">
+        <v>377</v>
+      </c>
+      <c r="H18" s="2">
+        <v>377</v>
+      </c>
+      <c r="I18" s="2">
+        <v>391</v>
+      </c>
+      <c r="J18" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>383</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="E19" s="2">
+        <v>377</v>
+      </c>
+      <c r="F19" s="2">
+        <v>373</v>
+      </c>
+      <c r="G19" s="2">
+        <v>386</v>
+      </c>
+      <c r="H19" s="2">
+        <v>374</v>
+      </c>
+      <c r="I19" s="2">
+        <v>394</v>
+      </c>
+      <c r="J19" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>379</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="E20" s="2">
+        <v>398</v>
+      </c>
+      <c r="F20" s="2">
+        <v>373</v>
+      </c>
+      <c r="G20" s="2">
+        <v>366</v>
+      </c>
+      <c r="H20" s="2">
+        <v>381</v>
+      </c>
+      <c r="I20" s="2">
+        <v>408</v>
+      </c>
+      <c r="J20" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>375</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="E21" s="2">
+        <v>386</v>
+      </c>
+      <c r="F21" s="2">
+        <v>404</v>
+      </c>
+      <c r="G21" s="2">
+        <v>376</v>
+      </c>
+      <c r="H21" s="2">
+        <v>375</v>
+      </c>
+      <c r="I21" s="2">
+        <v>389</v>
+      </c>
+      <c r="J21" s="2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>373</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="E22" s="2">
+        <v>384</v>
+      </c>
+      <c r="F22" s="2">
+        <v>403</v>
+      </c>
+      <c r="G22" s="2">
+        <v>393</v>
+      </c>
+      <c r="H22" s="2">
+        <v>390</v>
+      </c>
+      <c r="I22" s="2">
+        <v>385</v>
+      </c>
+      <c r="J22" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>373</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="E23" s="2">
+        <v>386</v>
+      </c>
+      <c r="F23" s="2">
+        <v>394</v>
+      </c>
+      <c r="G23" s="2">
+        <v>381</v>
+      </c>
+      <c r="H23" s="2">
+        <v>355</v>
+      </c>
+      <c r="I23" s="2">
+        <v>376</v>
+      </c>
+      <c r="J23" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>16</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>404</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="E24" s="2">
+        <v>375</v>
+      </c>
+      <c r="F24" s="2">
+        <v>398</v>
+      </c>
+      <c r="G24" s="2">
+        <v>397</v>
+      </c>
+      <c r="H24" s="2">
+        <v>363</v>
+      </c>
+      <c r="I24" s="2">
+        <v>389</v>
+      </c>
+      <c r="J24" s="2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>403</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="E25" s="2">
+        <v>386</v>
+      </c>
+      <c r="F25" s="2">
+        <v>392</v>
+      </c>
+      <c r="G25" s="2">
+        <v>393</v>
+      </c>
+      <c r="H25" s="2">
+        <v>389</v>
+      </c>
+      <c r="I25" s="2">
+        <v>380</v>
+      </c>
+      <c r="J25" s="2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>18</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>394</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>19</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>398</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>392</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>21</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>379</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>22</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>390</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>23</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>377</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>24</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>386</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>25</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>366</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>26</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>376</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>393</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>28</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>381</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>29</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>397</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>30</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>393</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>31</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>375</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>32</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>382</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>33</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>377</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
         <v>34</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>374</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>35</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>381</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
         <v>36</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>375</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
         <v>37</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>390</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
         <v>38</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2">
         <v>355</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
         <v>39</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2">
         <v>363</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
         <v>40</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2">
         <v>389</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>41</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="2">
         <v>391</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>42</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2">
         <v>382</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>43</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="2">
         <v>391</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
         <v>44</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="2">
         <v>394</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>45</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="2">
         <v>408</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
         <v>46</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="2">
         <v>389</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
         <v>47</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="2">
         <v>385</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
         <v>48</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="2">
         <v>376</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
         <v>49</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="2">
         <v>389</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
         <v>50</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="2">
         <v>380</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
         <v>51</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="2">
         <v>393</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
         <v>52</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="2">
         <v>373</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
         <v>53</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="2">
         <v>396</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
         <v>54</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="2">
         <v>369</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
         <v>55</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="2">
         <v>385</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
         <v>56</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="2">
         <v>392</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
         <v>57</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="2">
         <v>371</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
         <v>58</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="2">
         <v>386</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
         <v>59</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="2">
         <v>392</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
         <v>60</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="2">
         <v>393</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -1185,64 +1621,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1278,857 +1711,1056 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>382</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <f aca="false">AVERAGE($B9:$B18)-30</f>
+      <c r="F9" s="2">
+        <f>AVERAGE($B9:$B18)-30</f>
         <v>363.9</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">MIN($B9:$B18)-30</f>
+      <c r="G9" s="2">
+        <f>MIN($B9:$B18)-30</f>
         <v>352</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,1)-30</f>
+      <c r="H9" s="2">
+        <f>QUARTILE($B9:$B18,1)-30</f>
         <v>358.25</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,2)-30</f>
+      <c r="I9" s="2">
+        <f>QUARTILE($B9:$B18,2)-30</f>
         <v>362.5</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,3)-30</f>
+      <c r="J9" s="2">
+        <f>QUARTILE($B9:$B18,3)-30</f>
         <v>368.5</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">MAX($B9:$B18)-30</f>
+      <c r="K9" s="2">
+        <f>MAX($B9:$B18)-30</f>
         <v>377</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <f aca="false">STDEV($B9:$B18)</f>
-        <v>8.38583461691335</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="L9" s="2">
+        <f>STDEV($B9:$B18)</f>
+        <v>8.3858346169133462</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>399</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>0.2</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <f aca="false">AVERAGE($B19:$B28)-30</f>
+      <c r="F10" s="2">
+        <f>AVERAGE($B19:$B28)-30</f>
         <v>366.1</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">MIN($B19:$B28)-30</f>
+      <c r="G10" s="2">
+        <f>MIN($B19:$B28)-30</f>
         <v>348</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,1)-30</f>
+      <c r="H10" s="2">
+        <f>QUARTILE($B19:$B28,1)-30</f>
         <v>354.75</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,2)-30</f>
+      <c r="I10" s="2">
+        <f>QUARTILE($B19:$B28,2)-30</f>
         <v>364</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,3)-30</f>
+      <c r="J10" s="2">
+        <f>QUARTILE($B19:$B28,3)-30</f>
         <v>368</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">MAX($B19:$B28)-30</f>
+      <c r="K10" s="2">
+        <f>MAX($B19:$B28)-30</f>
         <v>415</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <f aca="false">STDEV($B19:$B28)</f>
-        <v>19.0114000887187</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="L10" s="2">
+        <f>STDEV($B19:$B28)</f>
+        <v>19.011400088718698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>386</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>0.4</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <f aca="false">AVERAGE($B29:$B38)-30</f>
+      <c r="F11" s="2">
+        <f>AVERAGE($B29:$B38)-30</f>
         <v>357</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">MIN($B29:$B38)-30</f>
+      <c r="G11" s="2">
+        <f>MIN($B29:$B38)-30</f>
         <v>344</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,1)-30</f>
+      <c r="H11" s="2">
+        <f>QUARTILE($B29:$B38,1)-30</f>
         <v>349.5</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,2)-30</f>
+      <c r="I11" s="2">
+        <f>QUARTILE($B29:$B38,2)-30</f>
         <v>357</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,3)-30</f>
+      <c r="J11" s="2">
+        <f>QUARTILE($B29:$B38,3)-30</f>
         <v>360.75</v>
       </c>
-      <c r="K11" s="2" t="n">
-        <f aca="false">MAX($B29:$B38)-30</f>
+      <c r="K11" s="2">
+        <f>MAX($B29:$B38)-30</f>
         <v>380</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <f aca="false">STDEV($B29:$B38)</f>
-        <v>10.4880884817015</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="L11" s="2">
+        <f>STDEV($B29:$B38)</f>
+        <v>10.488088481701515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>390</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>0.6</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <f aca="false">AVERAGE($B39:$B48)-30</f>
+      <c r="F12" s="2">
+        <f>AVERAGE($B39:$B48)-30</f>
         <v>360.8</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <f aca="false">MIN($B39:$B48)-30</f>
+      <c r="G12" s="2">
+        <f>MIN($B39:$B48)-30</f>
         <v>345</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,1)-30</f>
+      <c r="H12" s="2">
+        <f>QUARTILE($B39:$B48,1)-30</f>
         <v>360.5</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,2)-30</f>
+      <c r="I12" s="2">
+        <f>QUARTILE($B39:$B48,2)-30</f>
         <v>362.5</v>
       </c>
-      <c r="J12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,3)-30</f>
+      <c r="J12" s="2">
+        <f>QUARTILE($B39:$B48,3)-30</f>
         <v>364.5</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">MAX($B39:$B48)-30</f>
+      <c r="K12" s="2">
+        <f>MAX($B39:$B48)-30</f>
         <v>371</v>
       </c>
-      <c r="L12" s="2" t="n">
-        <f aca="false">STDEV($B39:$B48)</f>
-        <v>7.29992389610254</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="L12" s="2">
+        <f>STDEV($B39:$B48)</f>
+        <v>7.2999238961025412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>395</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>0.8</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <f aca="false">AVERAGE($B49:$B58)-30</f>
+      <c r="F13" s="2">
+        <f>AVERAGE($B49:$B58)-30</f>
         <v>347.7</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <f aca="false">MIN($B49:$B58)-30</f>
+      <c r="G13" s="2">
+        <f>MIN($B49:$B58)-30</f>
         <v>337</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,1)-30</f>
+      <c r="H13" s="2">
+        <f>QUARTILE($B49:$B58,1)-30</f>
         <v>345</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,2)-30</f>
+      <c r="I13" s="2">
+        <f>QUARTILE($B49:$B58,2)-30</f>
         <v>347.5</v>
       </c>
-      <c r="J13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,3)-30</f>
+      <c r="J13" s="2">
+        <f>QUARTILE($B49:$B58,3)-30</f>
         <v>350.75</v>
       </c>
-      <c r="K13" s="2" t="n">
-        <f aca="false">MAX($B49:$B58)-30</f>
+      <c r="K13" s="2">
+        <f>MAX($B49:$B58)-30</f>
         <v>363</v>
       </c>
-      <c r="L13" s="2" t="n">
-        <f aca="false">STDEV($B49:$B58)</f>
-        <v>7.49888880657217</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="L13" s="2">
+        <f>STDEV($B49:$B58)</f>
+        <v>7.4988888065721673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>397</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <f aca="false">AVERAGE($B59:$B68)-30</f>
+      <c r="F14" s="2">
+        <f>AVERAGE($B59:$B68)-30</f>
         <v>352.1</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <f aca="false">MIN($B59:$B68)-30</f>
+      <c r="G14" s="2">
+        <f>MIN($B59:$B68)-30</f>
         <v>326</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,1)-30</f>
+      <c r="H14" s="2">
+        <f>QUARTILE($B59:$B68,1)-30</f>
         <v>345.5</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,2)-30</f>
+      <c r="I14" s="2">
+        <f>QUARTILE($B59:$B68,2)-30</f>
         <v>357.5</v>
       </c>
-      <c r="J14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,3)-30</f>
+      <c r="J14" s="2">
+        <f>QUARTILE($B59:$B68,3)-30</f>
         <v>359</v>
       </c>
-      <c r="K14" s="2" t="n">
-        <f aca="false">MAX($B59:$B68)-30</f>
+      <c r="K14" s="2">
+        <f>MAX($B59:$B68)-30</f>
         <v>369</v>
       </c>
-      <c r="L14" s="2" t="n">
-        <f aca="false">STDEV($B59:$B68)</f>
-        <v>13.3037171079698</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="L14" s="2">
+        <f>STDEV($B59:$B68)</f>
+        <v>13.30371710796982</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>388</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>407</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="E16" s="2">
+        <v>382</v>
+      </c>
+      <c r="F16" s="2">
+        <v>379</v>
+      </c>
+      <c r="G16" s="2">
+        <v>377</v>
+      </c>
+      <c r="H16" s="2">
+        <v>382</v>
+      </c>
+      <c r="I16" s="2">
+        <v>375</v>
+      </c>
+      <c r="J16" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>389</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="E17" s="2">
+        <v>399</v>
+      </c>
+      <c r="F17" s="2">
+        <v>398</v>
+      </c>
+      <c r="G17" s="2">
+        <v>394</v>
+      </c>
+      <c r="H17" s="2">
+        <v>393</v>
+      </c>
+      <c r="I17" s="2">
+        <v>379</v>
+      </c>
+      <c r="J17" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>406</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="E18" s="2">
+        <v>386</v>
+      </c>
+      <c r="F18" s="2">
+        <v>378</v>
+      </c>
+      <c r="G18" s="2">
+        <v>390</v>
+      </c>
+      <c r="H18" s="2">
+        <v>393</v>
+      </c>
+      <c r="I18" s="2">
+        <v>375</v>
+      </c>
+      <c r="J18" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>379</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="E19" s="2">
+        <v>390</v>
+      </c>
+      <c r="F19" s="2">
+        <v>382</v>
+      </c>
+      <c r="G19" s="2">
+        <v>379</v>
+      </c>
+      <c r="H19" s="2">
+        <v>375</v>
+      </c>
+      <c r="I19" s="2">
+        <v>383</v>
+      </c>
+      <c r="J19" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>398</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="E20" s="2">
+        <v>395</v>
+      </c>
+      <c r="F20" s="2">
+        <v>395</v>
+      </c>
+      <c r="G20" s="2">
+        <v>390</v>
+      </c>
+      <c r="H20" s="2">
+        <v>392</v>
+      </c>
+      <c r="I20" s="2">
+        <v>393</v>
+      </c>
+      <c r="J20" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>378</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="E21" s="2">
+        <v>397</v>
+      </c>
+      <c r="F21" s="2">
+        <v>445</v>
+      </c>
+      <c r="G21" s="2">
+        <v>384</v>
+      </c>
+      <c r="H21" s="2">
+        <v>390</v>
+      </c>
+      <c r="I21" s="2">
+        <v>376</v>
+      </c>
+      <c r="J21" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>382</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="E22" s="2">
+        <v>388</v>
+      </c>
+      <c r="F22" s="2">
+        <v>393</v>
+      </c>
+      <c r="G22" s="2">
+        <v>410</v>
+      </c>
+      <c r="H22" s="2">
+        <v>395</v>
+      </c>
+      <c r="I22" s="2">
+        <v>380</v>
+      </c>
+      <c r="J22" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>395</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="E23" s="2">
+        <v>407</v>
+      </c>
+      <c r="F23" s="2">
+        <v>400</v>
+      </c>
+      <c r="G23" s="2">
+        <v>374</v>
+      </c>
+      <c r="H23" s="2">
+        <v>401</v>
+      </c>
+      <c r="I23" s="2">
+        <v>367</v>
+      </c>
+      <c r="J23" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>16</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>445</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="E24" s="2">
+        <v>389</v>
+      </c>
+      <c r="F24" s="2">
+        <v>393</v>
+      </c>
+      <c r="G24" s="2">
+        <v>381</v>
+      </c>
+      <c r="H24" s="2">
+        <v>392</v>
+      </c>
+      <c r="I24" s="2">
+        <v>368</v>
+      </c>
+      <c r="J24" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>393</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="E25" s="2">
+        <v>406</v>
+      </c>
+      <c r="F25" s="2">
+        <v>398</v>
+      </c>
+      <c r="G25" s="2">
+        <v>391</v>
+      </c>
+      <c r="H25" s="2">
+        <v>395</v>
+      </c>
+      <c r="I25" s="2">
+        <v>381</v>
+      </c>
+      <c r="J25" s="2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>18</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>400</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>19</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>393</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>398</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>21</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>377</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>22</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>394</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>23</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>390</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>24</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>379</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>25</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>390</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>26</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>384</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>410</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>28</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>374</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>29</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>381</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>30</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>391</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>31</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>382</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>32</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>393</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>33</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>393</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
         <v>34</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>375</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>35</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>392</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
         <v>36</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>390</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
         <v>37</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>395</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="2">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
         <v>38</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2">
         <v>401</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
         <v>39</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2">
         <v>392</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
         <v>40</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2">
         <v>395</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>41</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="2">
         <v>375</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>42</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2">
         <v>379</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>43</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="2">
         <v>375</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
         <v>44</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="2">
         <v>383</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>45</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="2">
         <v>393</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
         <v>46</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="2">
         <v>376</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
         <v>47</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="2">
         <v>380</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
         <v>48</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="2">
         <v>367</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
         <v>49</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="2">
         <v>368</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
         <v>50</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="2">
         <v>381</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
         <v>51</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="2">
         <v>389</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
         <v>52</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="2">
         <v>365</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
         <v>53</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="2">
         <v>390</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
         <v>54</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="2">
         <v>388</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
         <v>55</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="2">
         <v>372</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
         <v>56</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="2">
         <v>399</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
         <v>57</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="2">
         <v>387</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
         <v>58</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="2">
         <v>389</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
         <v>59</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="2">
         <v>386</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
         <v>60</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="2">
         <v>356</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2136,64 +2768,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -2229,857 +2858,1036 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>395</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <f aca="false">AVERAGE($B9:$B18)-30</f>
+      <c r="F9" s="2">
+        <f>AVERAGE($B9:$B18)-30</f>
         <v>360.4</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">MIN($B9:$B18)-30</f>
+      <c r="G9" s="2">
+        <f>MIN($B9:$B18)-30</f>
         <v>346</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,1)-30</f>
+      <c r="H9" s="2">
+        <f>QUARTILE($B9:$B18,1)-30</f>
         <v>358.25</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,2)-30</f>
+      <c r="I9" s="2">
+        <f>QUARTILE($B9:$B18,2)-30</f>
         <v>362.5</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,3)-30</f>
+      <c r="J9" s="2">
+        <f>QUARTILE($B9:$B18,3)-30</f>
         <v>365.75</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">MAX($B9:$B18)-30</f>
+      <c r="K9" s="2">
+        <f>MAX($B9:$B18)-30</f>
         <v>369</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <f aca="false">STDEV($B9:$B18)</f>
-        <v>8.31598193574009</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="L9" s="2">
+        <f>STDEV($B9:$B18)</f>
+        <v>8.3159819357400924</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>376</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>0.2</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <f aca="false">AVERAGE($B19:$B28)-30</f>
+      <c r="F10" s="2">
+        <f>AVERAGE($B19:$B28)-30</f>
         <v>357</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">MIN($B19:$B28)-30</f>
+      <c r="G10" s="2">
+        <f>MIN($B19:$B28)-30</f>
         <v>337</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,1)-30</f>
+      <c r="H10" s="2">
+        <f>QUARTILE($B19:$B28,1)-30</f>
         <v>349.25</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,2)-30</f>
+      <c r="I10" s="2">
+        <f>QUARTILE($B19:$B28,2)-30</f>
         <v>360</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,3)-30</f>
+      <c r="J10" s="2">
+        <f>QUARTILE($B19:$B28,3)-30</f>
         <v>363.75</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">MAX($B19:$B28)-30</f>
+      <c r="K10" s="2">
+        <f>MAX($B19:$B28)-30</f>
         <v>371</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <f aca="false">STDEV($B19:$B28)</f>
-        <v>10.5514611942296</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="L10" s="2">
+        <f>STDEV($B19:$B28)</f>
+        <v>10.55146119422961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>396</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>0.4</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <f aca="false">AVERAGE($B29:$B38)-30</f>
+      <c r="F11" s="2">
+        <f>AVERAGE($B29:$B38)-30</f>
         <v>354.8</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">MIN($B29:$B38)-30</f>
+      <c r="G11" s="2">
+        <f>MIN($B29:$B38)-30</f>
         <v>344</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,1)-30</f>
+      <c r="H11" s="2">
+        <f>QUARTILE($B29:$B38,1)-30</f>
         <v>348.25</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,2)-30</f>
+      <c r="I11" s="2">
+        <f>QUARTILE($B29:$B38,2)-30</f>
         <v>353.5</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,3)-30</f>
+      <c r="J11" s="2">
+        <f>QUARTILE($B29:$B38,3)-30</f>
         <v>361.25</v>
       </c>
-      <c r="K11" s="2" t="n">
-        <f aca="false">MAX($B29:$B38)-30</f>
+      <c r="K11" s="2">
+        <f>MAX($B29:$B38)-30</f>
         <v>371</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <f aca="false">STDEV($B29:$B38)</f>
-        <v>8.63841549256704</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="L11" s="2">
+        <f>STDEV($B29:$B38)</f>
+        <v>8.6384154925670362</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>393</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>0.6</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <f aca="false">AVERAGE($B39:$B48)-30</f>
+      <c r="F12" s="2">
+        <f>AVERAGE($B39:$B48)-30</f>
         <v>349.2</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <f aca="false">MIN($B39:$B48)-30</f>
+      <c r="G12" s="2">
+        <f>MIN($B39:$B48)-30</f>
         <v>337</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,1)-30</f>
+      <c r="H12" s="2">
+        <f>QUARTILE($B39:$B48,1)-30</f>
         <v>348.25</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,2)-30</f>
+      <c r="I12" s="2">
+        <f>QUARTILE($B39:$B48,2)-30</f>
         <v>350</v>
       </c>
-      <c r="J12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,3)-30</f>
+      <c r="J12" s="2">
+        <f>QUARTILE($B39:$B48,3)-30</f>
         <v>352.75</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">MAX($B39:$B48)-30</f>
+      <c r="K12" s="2">
+        <f>MAX($B39:$B48)-30</f>
         <v>355</v>
       </c>
-      <c r="L12" s="2" t="n">
-        <f aca="false">STDEV($B39:$B48)</f>
-        <v>5.34997403939703</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="L12" s="2">
+        <f>STDEV($B39:$B48)</f>
+        <v>5.3499740393970345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>399</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>0.8</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <f aca="false">AVERAGE($B49:$B58)-30</f>
+      <c r="F13" s="2">
+        <f>AVERAGE($B49:$B58)-30</f>
         <v>350.7</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <f aca="false">MIN($B49:$B58)-30</f>
+      <c r="G13" s="2">
+        <f>MIN($B49:$B58)-30</f>
         <v>338</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,1)-30</f>
+      <c r="H13" s="2">
+        <f>QUARTILE($B49:$B58,1)-30</f>
         <v>342.25</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,2)-30</f>
+      <c r="I13" s="2">
+        <f>QUARTILE($B49:$B58,2)-30</f>
         <v>348</v>
       </c>
-      <c r="J13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,3)-30</f>
+      <c r="J13" s="2">
+        <f>QUARTILE($B49:$B58,3)-30</f>
         <v>358.75</v>
       </c>
-      <c r="K13" s="2" t="n">
-        <f aca="false">MAX($B49:$B58)-30</f>
+      <c r="K13" s="2">
+        <f>MAX($B49:$B58)-30</f>
         <v>367</v>
       </c>
-      <c r="L13" s="2" t="n">
-        <f aca="false">STDEV($B49:$B58)</f>
-        <v>10.8428163623049</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="L13" s="2">
+        <f>STDEV($B49:$B58)</f>
+        <v>10.842816362304891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>398</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <f aca="false">AVERAGE($B59:$B68)-30</f>
+      <c r="F14" s="2">
+        <f>AVERAGE($B59:$B68)-30</f>
         <v>354.1</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <f aca="false">MIN($B59:$B68)-30</f>
+      <c r="G14" s="2">
+        <f>MIN($B59:$B68)-30</f>
         <v>338</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,1)-30</f>
+      <c r="H14" s="2">
+        <f>QUARTILE($B59:$B68,1)-30</f>
         <v>347.25</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,2)-30</f>
+      <c r="I14" s="2">
+        <f>QUARTILE($B59:$B68,2)-30</f>
         <v>349</v>
       </c>
-      <c r="J14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,3)-30</f>
+      <c r="J14" s="2">
+        <f>QUARTILE($B59:$B68,3)-30</f>
         <v>356.5</v>
       </c>
-      <c r="K14" s="2" t="n">
-        <f aca="false">MAX($B59:$B68)-30</f>
+      <c r="K14" s="2">
+        <f>MAX($B59:$B68)-30</f>
         <v>390</v>
       </c>
-      <c r="L14" s="2" t="n">
-        <f aca="false">STDEV($B59:$B68)</f>
-        <v>14.7229978831305</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="L14" s="2">
+        <f>STDEV($B59:$B68)</f>
+        <v>14.722997883130549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>392</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>392</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="E16" s="2">
+        <v>395</v>
+      </c>
+      <c r="F16" s="2">
+        <v>390</v>
+      </c>
+      <c r="G16" s="2">
+        <v>378</v>
+      </c>
+      <c r="H16" s="2">
+        <v>385</v>
+      </c>
+      <c r="I16" s="2">
+        <v>381</v>
+      </c>
+      <c r="J16" s="2">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>376</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="E17" s="2">
+        <v>376</v>
+      </c>
+      <c r="F17" s="2">
+        <v>367</v>
+      </c>
+      <c r="G17" s="2">
+        <v>393</v>
+      </c>
+      <c r="H17" s="2">
+        <v>384</v>
+      </c>
+      <c r="I17" s="2">
+        <v>373</v>
+      </c>
+      <c r="J17" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>387</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="E18" s="2">
+        <v>396</v>
+      </c>
+      <c r="F18" s="2">
+        <v>401</v>
+      </c>
+      <c r="G18" s="2">
+        <v>381</v>
+      </c>
+      <c r="H18" s="2">
+        <v>367</v>
+      </c>
+      <c r="I18" s="2">
+        <v>395</v>
+      </c>
+      <c r="J18" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>390</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="E19" s="2">
+        <v>393</v>
+      </c>
+      <c r="F19" s="2">
+        <v>393</v>
+      </c>
+      <c r="G19" s="2">
+        <v>379</v>
+      </c>
+      <c r="H19" s="2">
+        <v>383</v>
+      </c>
+      <c r="I19" s="2">
+        <v>388</v>
+      </c>
+      <c r="J19" s="2">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>367</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="E20" s="2">
+        <v>399</v>
+      </c>
+      <c r="F20" s="2">
+        <v>390</v>
+      </c>
+      <c r="G20" s="2">
+        <v>386</v>
+      </c>
+      <c r="H20" s="2">
+        <v>380</v>
+      </c>
+      <c r="I20" s="2">
+        <v>369</v>
+      </c>
+      <c r="J20" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>401</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="E21" s="2">
+        <v>398</v>
+      </c>
+      <c r="F21" s="2">
+        <v>376</v>
+      </c>
+      <c r="G21" s="2">
+        <v>374</v>
+      </c>
+      <c r="H21" s="2">
+        <v>374</v>
+      </c>
+      <c r="I21" s="2">
+        <v>389</v>
+      </c>
+      <c r="J21" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>393</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="E22" s="2">
+        <v>392</v>
+      </c>
+      <c r="F22" s="2">
+        <v>394</v>
+      </c>
+      <c r="G22" s="2">
+        <v>386</v>
+      </c>
+      <c r="H22" s="2">
+        <v>380</v>
+      </c>
+      <c r="I22" s="2">
+        <v>372</v>
+      </c>
+      <c r="J22" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>390</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="E23" s="2">
+        <v>392</v>
+      </c>
+      <c r="F23" s="2">
+        <v>377</v>
+      </c>
+      <c r="G23" s="2">
+        <v>377</v>
+      </c>
+      <c r="H23" s="2">
+        <v>379</v>
+      </c>
+      <c r="I23" s="2">
+        <v>375</v>
+      </c>
+      <c r="J23" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>16</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>376</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="E24" s="2">
+        <v>376</v>
+      </c>
+      <c r="F24" s="2">
+        <v>396</v>
+      </c>
+      <c r="G24" s="2">
+        <v>393</v>
+      </c>
+      <c r="H24" s="2">
+        <v>382</v>
+      </c>
+      <c r="I24" s="2">
+        <v>397</v>
+      </c>
+      <c r="J24" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>394</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="E25" s="2">
+        <v>387</v>
+      </c>
+      <c r="F25" s="2">
+        <v>386</v>
+      </c>
+      <c r="G25" s="2">
+        <v>401</v>
+      </c>
+      <c r="H25" s="2">
+        <v>378</v>
+      </c>
+      <c r="I25" s="2">
+        <v>368</v>
+      </c>
+      <c r="J25" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>18</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>377</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>19</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>396</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>386</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>21</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>378</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>22</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>393</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>23</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>381</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>24</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>379</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>25</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>386</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>26</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>374</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>386</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>28</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>377</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>29</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>393</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>30</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>401</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>31</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>385</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>32</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>384</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>33</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>367</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
         <v>34</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>383</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>35</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>380</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
         <v>36</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>374</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
         <v>37</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>380</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
         <v>38</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2">
         <v>379</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
         <v>39</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2">
         <v>382</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
         <v>40</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2">
         <v>378</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>41</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="2">
         <v>381</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>42</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2">
         <v>373</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>43</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="2">
         <v>395</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
         <v>44</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="2">
         <v>388</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>45</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="2">
         <v>369</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
         <v>46</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="2">
         <v>389</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
         <v>47</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="2">
         <v>372</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
         <v>48</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="2">
         <v>375</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
         <v>49</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="2">
         <v>397</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
         <v>50</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="2">
         <v>368</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
         <v>51</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="2">
         <v>382</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
         <v>52</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="2">
         <v>368</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
         <v>53</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="2">
         <v>396</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
         <v>54</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="2">
         <v>377</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
         <v>55</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="2">
         <v>378</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
         <v>56</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="2">
         <v>420</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
         <v>57</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="2">
         <v>379</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
         <v>58</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="2">
         <v>388</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
         <v>59</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="2">
         <v>379</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
         <v>60</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="2">
         <v>374</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -3087,64 +3895,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:L68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>450</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -3180,857 +3985,1036 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>405</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <f aca="false">AVERAGE($B9:$B18)-30</f>
+      <c r="F9" s="2">
+        <f>AVERAGE($B9:$B18)-30</f>
         <v>362.8</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">MIN($B9:$B18)-30</f>
+      <c r="G9" s="2">
+        <f>MIN($B9:$B18)-30</f>
         <v>350</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,1)-30</f>
+      <c r="H9" s="2">
+        <f>QUARTILE($B9:$B18,1)-30</f>
         <v>356.25</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,2)-30</f>
+      <c r="I9" s="2">
+        <f>QUARTILE($B9:$B18,2)-30</f>
         <v>362</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,3)-30</f>
+      <c r="J9" s="2">
+        <f>QUARTILE($B9:$B18,3)-30</f>
         <v>371</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">MAX($B9:$B18)-30</f>
+      <c r="K9" s="2">
+        <f>MAX($B9:$B18)-30</f>
         <v>375</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <f aca="false">STDEV($B9:$B18)</f>
-        <v>9.05293077160958</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="L9" s="2">
+        <f>STDEV($B9:$B18)</f>
+        <v>9.0529307716095762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>396</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>0.2</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <f aca="false">AVERAGE($B19:$B28)-30</f>
+      <c r="F10" s="2">
+        <f>AVERAGE($B19:$B28)-30</f>
         <v>366.3</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">MIN($B19:$B28)-30</f>
+      <c r="G10" s="2">
+        <f>MIN($B19:$B28)-30</f>
         <v>350</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,1)-30</f>
+      <c r="H10" s="2">
+        <f>QUARTILE($B19:$B28,1)-30</f>
         <v>353.5</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,2)-30</f>
+      <c r="I10" s="2">
+        <f>QUARTILE($B19:$B28,2)-30</f>
         <v>361.5</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,3)-30</f>
+      <c r="J10" s="2">
+        <f>QUARTILE($B19:$B28,3)-30</f>
         <v>367.25</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">MAX($B19:$B28)-30</f>
+      <c r="K10" s="2">
+        <f>MAX($B19:$B28)-30</f>
         <v>417</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <f aca="false">STDEV($B19:$B28)</f>
-        <v>19.8385147293508</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="L10" s="2">
+        <f>STDEV($B19:$B28)</f>
+        <v>19.838514729350749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>387</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>0.4</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <f aca="false">AVERAGE($B29:$B38)-30</f>
+      <c r="F11" s="2">
+        <f>AVERAGE($B29:$B38)-30</f>
         <v>352.2</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">MIN($B29:$B38)-30</f>
+      <c r="G11" s="2">
+        <f>MIN($B29:$B38)-30</f>
         <v>344</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,1)-30</f>
+      <c r="H11" s="2">
+        <f>QUARTILE($B29:$B38,1)-30</f>
         <v>347.75</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,2)-30</f>
+      <c r="I11" s="2">
+        <f>QUARTILE($B29:$B38,2)-30</f>
         <v>351.5</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,3)-30</f>
+      <c r="J11" s="2">
+        <f>QUARTILE($B29:$B38,3)-30</f>
         <v>355</v>
       </c>
-      <c r="K11" s="2" t="n">
-        <f aca="false">MAX($B29:$B38)-30</f>
+      <c r="K11" s="2">
+        <f>MAX($B29:$B38)-30</f>
         <v>363</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <f aca="false">STDEV($B29:$B38)</f>
-        <v>5.94044517598546</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="L11" s="2">
+        <f>STDEV($B29:$B38)</f>
+        <v>5.9404451759854577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>386</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>0.6</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <f aca="false">AVERAGE($B39:$B48)-30</f>
+      <c r="F12" s="2">
+        <f>AVERAGE($B39:$B48)-30</f>
         <v>368.9</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <f aca="false">MIN($B39:$B48)-30</f>
+      <c r="G12" s="2">
+        <f>MIN($B39:$B48)-30</f>
         <v>352</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,1)-30</f>
+      <c r="H12" s="2">
+        <f>QUARTILE($B39:$B48,1)-30</f>
         <v>361.25</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,2)-30</f>
+      <c r="I12" s="2">
+        <f>QUARTILE($B39:$B48,2)-30</f>
         <v>364.5</v>
       </c>
-      <c r="J12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,3)-30</f>
+      <c r="J12" s="2">
+        <f>QUARTILE($B39:$B48,3)-30</f>
         <v>374.5</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">MAX($B39:$B48)-30</f>
+      <c r="K12" s="2">
+        <f>MAX($B39:$B48)-30</f>
         <v>405</v>
       </c>
-      <c r="L12" s="2" t="n">
-        <f aca="false">STDEV($B39:$B48)</f>
-        <v>15.8426288503168</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="L12" s="2">
+        <f>STDEV($B39:$B48)</f>
+        <v>15.842628850316757</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>383</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>0.8</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <f aca="false">AVERAGE($B49:$B58)-30</f>
+      <c r="F13" s="2">
+        <f>AVERAGE($B49:$B58)-30</f>
         <v>354.9</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <f aca="false">MIN($B49:$B58)-30</f>
+      <c r="G13" s="2">
+        <f>MIN($B49:$B58)-30</f>
         <v>334</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,1)-30</f>
+      <c r="H13" s="2">
+        <f>QUARTILE($B49:$B58,1)-30</f>
         <v>348.5</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,2)-30</f>
+      <c r="I13" s="2">
+        <f>QUARTILE($B49:$B58,2)-30</f>
         <v>352</v>
       </c>
-      <c r="J13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,3)-30</f>
+      <c r="J13" s="2">
+        <f>QUARTILE($B49:$B58,3)-30</f>
         <v>358</v>
       </c>
-      <c r="K13" s="2" t="n">
-        <f aca="false">MAX($B49:$B58)-30</f>
+      <c r="K13" s="2">
+        <f>MAX($B49:$B58)-30</f>
         <v>395</v>
       </c>
-      <c r="L13" s="2" t="n">
-        <f aca="false">STDEV($B49:$B58)</f>
-        <v>16.0862259920302</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="L13" s="2">
+        <f>STDEV($B49:$B58)</f>
+        <v>16.086225992030162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>388</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>1</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <f aca="false">AVERAGE($B59:$B68)-30</f>
+      <c r="F14" s="2">
+        <f>AVERAGE($B59:$B68)-30</f>
         <v>349.2</v>
       </c>
-      <c r="G14" s="2" t="n">
-        <f aca="false">MIN($B59:$B68)-30</f>
+      <c r="G14" s="2">
+        <f>MIN($B59:$B68)-30</f>
         <v>338</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,1)-30</f>
+      <c r="H14" s="2">
+        <f>QUARTILE($B59:$B68,1)-30</f>
         <v>345.25</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,2)-30</f>
+      <c r="I14" s="2">
+        <f>QUARTILE($B59:$B68,2)-30</f>
         <v>350.5</v>
       </c>
-      <c r="J14" s="2" t="n">
-        <f aca="false">QUARTILE($B59:$B68,3)-30</f>
+      <c r="J14" s="2">
+        <f>QUARTILE($B59:$B68,3)-30</f>
         <v>354</v>
       </c>
-      <c r="K14" s="2" t="n">
-        <f aca="false">MAX($B59:$B68)-30</f>
+      <c r="K14" s="2">
+        <f>MAX($B59:$B68)-30</f>
         <v>357</v>
       </c>
-      <c r="L14" s="2" t="n">
-        <f aca="false">STDEV($B59:$B68)</f>
-        <v>6.47731082746193</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="L14" s="2">
+        <f>STDEV($B59:$B68)</f>
+        <v>6.4773108274619293</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>398</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>380</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="E16" s="2">
+        <v>405</v>
+      </c>
+      <c r="F16" s="2">
+        <v>389</v>
+      </c>
+      <c r="G16" s="2">
+        <v>389</v>
+      </c>
+      <c r="H16" s="2">
+        <v>395</v>
+      </c>
+      <c r="I16" s="2">
+        <v>425</v>
+      </c>
+      <c r="J16" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>403</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="E17" s="2">
+        <v>396</v>
+      </c>
+      <c r="F17" s="2">
+        <v>394</v>
+      </c>
+      <c r="G17" s="2">
+        <v>380</v>
+      </c>
+      <c r="H17" s="2">
+        <v>397</v>
+      </c>
+      <c r="I17" s="2">
+        <v>389</v>
+      </c>
+      <c r="J17" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>402</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="E18" s="2">
+        <v>387</v>
+      </c>
+      <c r="F18" s="2">
+        <v>383</v>
+      </c>
+      <c r="G18" s="2">
+        <v>376</v>
+      </c>
+      <c r="H18" s="2">
+        <v>413</v>
+      </c>
+      <c r="I18" s="2">
+        <v>382</v>
+      </c>
+      <c r="J18" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>389</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="E19" s="2">
+        <v>386</v>
+      </c>
+      <c r="F19" s="2">
+        <v>383</v>
+      </c>
+      <c r="G19" s="2">
+        <v>377</v>
+      </c>
+      <c r="H19" s="2">
+        <v>435</v>
+      </c>
+      <c r="I19" s="2">
+        <v>364</v>
+      </c>
+      <c r="J19" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>394</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="E20" s="2">
+        <v>383</v>
+      </c>
+      <c r="F20" s="2">
+        <v>380</v>
+      </c>
+      <c r="G20" s="2">
+        <v>393</v>
+      </c>
+      <c r="H20" s="2">
+        <v>392</v>
+      </c>
+      <c r="I20" s="2">
+        <v>380</v>
+      </c>
+      <c r="J20" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>383</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="E21" s="2">
+        <v>388</v>
+      </c>
+      <c r="F21" s="2">
+        <v>385</v>
+      </c>
+      <c r="G21" s="2">
+        <v>374</v>
+      </c>
+      <c r="H21" s="2">
+        <v>391</v>
+      </c>
+      <c r="I21" s="2">
+        <v>382</v>
+      </c>
+      <c r="J21" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>383</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="E22" s="2">
+        <v>398</v>
+      </c>
+      <c r="F22" s="2">
+        <v>395</v>
+      </c>
+      <c r="G22" s="2">
+        <v>381</v>
+      </c>
+      <c r="H22" s="2">
+        <v>407</v>
+      </c>
+      <c r="I22" s="2">
+        <v>385</v>
+      </c>
+      <c r="J22" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>380</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="E23" s="2">
+        <v>380</v>
+      </c>
+      <c r="F23" s="2">
+        <v>447</v>
+      </c>
+      <c r="G23" s="2">
+        <v>382</v>
+      </c>
+      <c r="H23" s="2">
+        <v>383</v>
+      </c>
+      <c r="I23" s="2">
+        <v>378</v>
+      </c>
+      <c r="J23" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>16</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>385</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="E24" s="2">
+        <v>403</v>
+      </c>
+      <c r="F24" s="2">
+        <v>398</v>
+      </c>
+      <c r="G24" s="2">
+        <v>385</v>
+      </c>
+      <c r="H24" s="2">
+        <v>394</v>
+      </c>
+      <c r="I24" s="2">
+        <v>391</v>
+      </c>
+      <c r="J24" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>395</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="E25" s="2">
+        <v>402</v>
+      </c>
+      <c r="F25" s="2">
+        <v>409</v>
+      </c>
+      <c r="G25" s="2">
+        <v>385</v>
+      </c>
+      <c r="H25" s="2">
+        <v>382</v>
+      </c>
+      <c r="I25" s="2">
+        <v>373</v>
+      </c>
+      <c r="J25" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>18</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>447</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>19</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>398</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>409</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>21</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>389</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>22</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>380</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>23</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>376</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>24</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>377</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>25</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>393</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>26</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>374</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>381</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>28</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>382</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>29</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>385</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>30</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>385</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
         <v>31</v>
       </c>
-      <c r="B39" s="2" t="n">
+      <c r="B39" s="2">
         <v>395</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
         <v>32</v>
       </c>
-      <c r="B40" s="2" t="n">
+      <c r="B40" s="2">
         <v>397</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
         <v>33</v>
       </c>
-      <c r="B41" s="2" t="n">
+      <c r="B41" s="2">
         <v>413</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
         <v>34</v>
       </c>
-      <c r="B42" s="2" t="n">
+      <c r="B42" s="2">
         <v>435</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
         <v>35</v>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B43" s="2">
         <v>392</v>
       </c>
-      <c r="C43" s="2" t="n">
+      <c r="C43" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
         <v>36</v>
       </c>
-      <c r="B44" s="2" t="n">
+      <c r="B44" s="2">
         <v>391</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
         <v>37</v>
       </c>
-      <c r="B45" s="2" t="n">
+      <c r="B45" s="2">
         <v>407</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
         <v>38</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="2">
         <v>383</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
         <v>39</v>
       </c>
-      <c r="B47" s="2" t="n">
+      <c r="B47" s="2">
         <v>394</v>
       </c>
-      <c r="C47" s="2" t="n">
+      <c r="C47" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
         <v>40</v>
       </c>
-      <c r="B48" s="2" t="n">
+      <c r="B48" s="2">
         <v>382</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
         <v>41</v>
       </c>
-      <c r="B49" s="2" t="n">
+      <c r="B49" s="2">
         <v>425</v>
       </c>
-      <c r="C49" s="2" t="n">
+      <c r="C49" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
         <v>42</v>
       </c>
-      <c r="B50" s="2" t="n">
+      <c r="B50" s="2">
         <v>389</v>
       </c>
-      <c r="C50" s="2" t="n">
+      <c r="C50" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
         <v>43</v>
       </c>
-      <c r="B51" s="2" t="n">
+      <c r="B51" s="2">
         <v>382</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="2">
         <v>44</v>
       </c>
-      <c r="B52" s="2" t="n">
+      <c r="B52" s="2">
         <v>364</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="2">
         <v>45</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="2">
         <v>380</v>
       </c>
-      <c r="C53" s="2" t="n">
+      <c r="C53" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="2">
         <v>46</v>
       </c>
-      <c r="B54" s="2" t="n">
+      <c r="B54" s="2">
         <v>382</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="2">
         <v>47</v>
       </c>
-      <c r="B55" s="2" t="n">
+      <c r="B55" s="2">
         <v>385</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="2">
         <v>48</v>
       </c>
-      <c r="B56" s="2" t="n">
+      <c r="B56" s="2">
         <v>378</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="2">
         <v>49</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="2">
         <v>391</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="2">
         <v>50</v>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B58" s="2">
         <v>373</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
         <v>51</v>
       </c>
-      <c r="B59" s="2" t="n">
+      <c r="B59" s="2">
         <v>380</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="2">
         <v>52</v>
       </c>
-      <c r="B60" s="2" t="n">
+      <c r="B60" s="2">
         <v>387</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
         <v>53</v>
       </c>
-      <c r="B61" s="2" t="n">
+      <c r="B61" s="2">
         <v>384</v>
       </c>
-      <c r="C61" s="2" t="n">
+      <c r="C61" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="2">
         <v>54</v>
       </c>
-      <c r="B62" s="2" t="n">
+      <c r="B62" s="2">
         <v>381</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="2">
         <v>55</v>
       </c>
-      <c r="B63" s="2" t="n">
+      <c r="B63" s="2">
         <v>375</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
         <v>56</v>
       </c>
-      <c r="B64" s="2" t="n">
+      <c r="B64" s="2">
         <v>386</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
         <v>57</v>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B65" s="2">
         <v>376</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
         <v>58</v>
       </c>
-      <c r="B66" s="2" t="n">
+      <c r="B66" s="2">
         <v>384</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
         <v>59</v>
       </c>
-      <c r="B67" s="2" t="n">
+      <c r="B67" s="2">
         <v>371</v>
       </c>
-      <c r="C67" s="2" t="n">
+      <c r="C67" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
         <v>60</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="2">
         <v>368</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="2">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4038,70 +5022,67 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>500</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -4136,437 +5117,524 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>449</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <f aca="false">AVERAGE($B9:$B18)-30</f>
+      <c r="F9" s="2">
+        <f>AVERAGE($B9:$B18)-30</f>
         <v>411.9</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">MIN($B9:$B18)-30</f>
+      <c r="G9" s="2">
+        <f>MIN($B9:$B18)-30</f>
         <v>385</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,1)-30</f>
+      <c r="H9" s="2">
+        <f>QUARTILE($B9:$B18,1)-30</f>
         <v>411.25</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,2)-30</f>
+      <c r="I9" s="2">
+        <f>QUARTILE($B9:$B18,2)-30</f>
         <v>417.5</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,3)-30</f>
+      <c r="J9" s="2">
+        <f>QUARTILE($B9:$B18,3)-30</f>
         <v>419</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">MAX($B9:$B18)-30</f>
+      <c r="K9" s="2">
+        <f>MAX($B9:$B18)-30</f>
         <v>422</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <f aca="false">STDEV($B9:$B18)</f>
-        <v>12.6618411861081</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="L9" s="2">
+        <f>STDEV($B9:$B18)</f>
+        <v>12.661841186108054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>415</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <f aca="false">AVERAGE($B19:$B28)-30</f>
+      <c r="F10" s="2">
+        <f>AVERAGE($B19:$B28)-30</f>
         <v>335.6</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">MIN($B19:$B28)-30</f>
+      <c r="G10" s="2">
+        <f>MIN($B19:$B28)-30</f>
         <v>312</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,1)-30</f>
+      <c r="H10" s="2">
+        <f>QUARTILE($B19:$B28,1)-30</f>
         <v>333</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,2)-30</f>
+      <c r="I10" s="2">
+        <f>QUARTILE($B19:$B28,2)-30</f>
         <v>334.5</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,3)-30</f>
+      <c r="J10" s="2">
+        <f>QUARTILE($B19:$B28,3)-30</f>
         <v>342.5</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">MAX($B19:$B28)-30</f>
+      <c r="K10" s="2">
+        <f>MAX($B19:$B28)-30</f>
         <v>356</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <f aca="false">STDEV($B19:$B28)</f>
-        <v>11.7681302205953</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="L10" s="2">
+        <f>STDEV($B19:$B28)</f>
+        <v>11.768130220595323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>451</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <f aca="false">AVERAGE($B29:$B38)-30</f>
+      <c r="F11" s="2">
+        <f>AVERAGE($B29:$B38)-30</f>
         <v>453.9</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">MIN($B29:$B38)-30</f>
+      <c r="G11" s="2">
+        <f>MIN($B29:$B38)-30</f>
         <v>441</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,1)-30</f>
+      <c r="H11" s="2">
+        <f>QUARTILE($B29:$B38,1)-30</f>
         <v>448.25</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,2)-30</f>
+      <c r="I11" s="2">
+        <f>QUARTILE($B29:$B38,2)-30</f>
         <v>454.5</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,3)-30</f>
+      <c r="J11" s="2">
+        <f>QUARTILE($B29:$B38,3)-30</f>
         <v>460.25</v>
       </c>
-      <c r="K11" s="2" t="n">
-        <f aca="false">MAX($B29:$B38)-30</f>
+      <c r="K11" s="2">
+        <f>MAX($B29:$B38)-30</f>
         <v>463</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <f aca="false">STDEV($B29:$B38)</f>
-        <v>7.43041796341976</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="L11" s="2">
+        <f>STDEV($B29:$B38)</f>
+        <v>7.4304179634197629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>445</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>440</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="E13" s="2">
+        <v>449</v>
+      </c>
+      <c r="F13" s="2">
+        <v>356</v>
+      </c>
+      <c r="G13" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>447</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="E14" s="2">
+        <v>415</v>
+      </c>
+      <c r="F14" s="2">
+        <v>365</v>
+      </c>
+      <c r="G14" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>449</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="E15" s="2">
+        <v>451</v>
+      </c>
+      <c r="F15" s="2">
+        <v>374</v>
+      </c>
+      <c r="G15" s="2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>452</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="E16" s="2">
+        <v>445</v>
+      </c>
+      <c r="F16" s="2">
+        <v>364</v>
+      </c>
+      <c r="G16" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>423</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="E17" s="2">
+        <v>440</v>
+      </c>
+      <c r="F17" s="2">
+        <v>386</v>
+      </c>
+      <c r="G17" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>448</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="E18" s="2">
+        <v>447</v>
+      </c>
+      <c r="F18" s="2">
+        <v>363</v>
+      </c>
+      <c r="G18" s="2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>356</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="E19" s="2">
+        <v>449</v>
+      </c>
+      <c r="F19" s="2">
+        <v>342</v>
+      </c>
+      <c r="G19" s="2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>365</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="E20" s="2">
+        <v>452</v>
+      </c>
+      <c r="F20" s="2">
+        <v>368</v>
+      </c>
+      <c r="G20" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>374</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="E21" s="2">
+        <v>423</v>
+      </c>
+      <c r="F21" s="2">
+        <v>363</v>
+      </c>
+      <c r="G21" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>364</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="E22" s="2">
+        <v>448</v>
+      </c>
+      <c r="F22" s="2">
+        <v>375</v>
+      </c>
+      <c r="G22" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>386</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>16</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>363</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>342</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>18</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>368</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>19</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>363</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>375</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>21</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>471</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>22</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>491</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>23</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>477</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>24</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>476</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>25</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>484</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>26</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>493</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>488</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>28</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>482</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>29</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>492</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>30</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>485</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -4574,70 +5642,67 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:L38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView topLeftCell="A11" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>450</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -4672,437 +5737,524 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="2">
         <v>445</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <f aca="false">AVERAGE($B9:$B18)-30</f>
+      <c r="F9" s="2">
+        <f>AVERAGE($B9:$B18)-30</f>
         <v>410.8</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">MIN($B9:$B18)-30</f>
+      <c r="G9" s="2">
+        <f>MIN($B9:$B18)-30</f>
         <v>399</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,1)-30</f>
+      <c r="H9" s="2">
+        <f>QUARTILE($B9:$B18,1)-30</f>
         <v>404.75</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,2)-30</f>
+      <c r="I9" s="2">
+        <f>QUARTILE($B9:$B18,2)-30</f>
         <v>409.5</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,3)-30</f>
+      <c r="J9" s="2">
+        <f>QUARTILE($B9:$B18,3)-30</f>
         <v>414.25</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">MAX($B9:$B18)-30</f>
+      <c r="K9" s="2">
+        <f>MAX($B9:$B18)-30</f>
         <v>427</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <f aca="false">STDEV($B9:$B18)</f>
-        <v>8.63841549256704</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+      <c r="L9" s="2">
+        <f>STDEV($B9:$B18)</f>
+        <v>8.638415492567038</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="2">
         <v>429</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="E10" s="2">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <f aca="false">AVERAGE($B19:$B28)-30</f>
+      <c r="F10" s="2">
+        <f>AVERAGE($B19:$B28)-30</f>
         <v>357.5</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">MIN($B19:$B28)-30</f>
+      <c r="G10" s="2">
+        <f>MIN($B19:$B28)-30</f>
         <v>342</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,1)-30</f>
+      <c r="H10" s="2">
+        <f>QUARTILE($B19:$B28,1)-30</f>
         <v>348</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,2)-30</f>
+      <c r="I10" s="2">
+        <f>QUARTILE($B19:$B28,2)-30</f>
         <v>357</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,3)-30</f>
+      <c r="J10" s="2">
+        <f>QUARTILE($B19:$B28,3)-30</f>
         <v>362.75</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">MAX($B19:$B28)-30</f>
+      <c r="K10" s="2">
+        <f>MAX($B19:$B28)-30</f>
         <v>376</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <f aca="false">STDEV($B19:$B28)</f>
-        <v>11.7213006483448</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="L10" s="2">
+        <f>STDEV($B19:$B28)</f>
+        <v>11.721300648344828</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
         <v>3</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="2">
         <v>457</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <f aca="false">AVERAGE($B29:$B38)-30</f>
+      <c r="F11" s="2">
+        <f>AVERAGE($B29:$B38)-30</f>
         <v>385.9</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">MIN($B29:$B38)-30</f>
+      <c r="G11" s="2">
+        <f>MIN($B29:$B38)-30</f>
         <v>349</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,1)-30</f>
+      <c r="H11" s="2">
+        <f>QUARTILE($B29:$B38,1)-30</f>
         <v>361.75</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,2)-30</f>
+      <c r="I11" s="2">
+        <f>QUARTILE($B29:$B38,2)-30</f>
         <v>383</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,3)-30</f>
+      <c r="J11" s="2">
+        <f>QUARTILE($B29:$B38,3)-30</f>
         <v>402.5</v>
       </c>
-      <c r="K11" s="2" t="n">
-        <f aca="false">MAX($B29:$B38)-30</f>
+      <c r="K11" s="2">
+        <f>MAX($B29:$B38)-30</f>
         <v>437</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <f aca="false">STDEV($B29:$B38)</f>
-        <v>29.0954368319921</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="L11" s="2">
+        <f>STDEV($B29:$B38)</f>
+        <v>29.095436831992135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
         <v>4</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="2">
         <v>434</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
         <v>5</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="2">
         <v>437</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="E13" s="2">
+        <v>445</v>
+      </c>
+      <c r="F13" s="2">
+        <v>406</v>
+      </c>
+      <c r="G13" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="2">
         <v>442</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="E14" s="2">
+        <v>429</v>
+      </c>
+      <c r="F14" s="2">
+        <v>394</v>
+      </c>
+      <c r="G14" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
         <v>7</v>
       </c>
-      <c r="B15" s="2" t="n">
+      <c r="B15" s="2">
         <v>439</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="E15" s="2">
+        <v>457</v>
+      </c>
+      <c r="F15" s="2">
+        <v>389</v>
+      </c>
+      <c r="G15" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="n">
+      <c r="B16" s="2">
         <v>452</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="E16" s="2">
+        <v>434</v>
+      </c>
+      <c r="F16" s="2">
+        <v>376</v>
+      </c>
+      <c r="G16" s="2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="2" t="n">
+      <c r="B17" s="2">
         <v>440</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="E17" s="2">
+        <v>437</v>
+      </c>
+      <c r="F17" s="2">
+        <v>388</v>
+      </c>
+      <c r="G17" s="2">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="2">
         <v>433</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="E18" s="2">
+        <v>442</v>
+      </c>
+      <c r="F18" s="2">
+        <v>372</v>
+      </c>
+      <c r="G18" s="2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="n">
+      <c r="B19" s="2">
         <v>406</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="E19" s="2">
+        <v>439</v>
+      </c>
+      <c r="F19" s="2">
+        <v>384</v>
+      </c>
+      <c r="G19" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="2" t="n">
+      <c r="B20" s="2">
         <v>394</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="E20" s="2">
+        <v>452</v>
+      </c>
+      <c r="F20" s="2">
+        <v>375</v>
+      </c>
+      <c r="G20" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
         <v>13</v>
       </c>
-      <c r="B21" s="2" t="n">
+      <c r="B21" s="2">
         <v>389</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="E21" s="2">
+        <v>440</v>
+      </c>
+      <c r="F21" s="2">
+        <v>386</v>
+      </c>
+      <c r="G21" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
         <v>14</v>
       </c>
-      <c r="B22" s="2" t="n">
+      <c r="B22" s="2">
         <v>376</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="E22" s="2">
+        <v>433</v>
+      </c>
+      <c r="F22" s="2">
+        <v>405</v>
+      </c>
+      <c r="G22" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
         <v>15</v>
       </c>
-      <c r="B23" s="2" t="n">
+      <c r="B23" s="2">
         <v>388</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
         <v>16</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="2">
         <v>372</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
         <v>17</v>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="2">
         <v>384</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
         <v>18</v>
       </c>
-      <c r="B26" s="2" t="n">
+      <c r="B26" s="2">
         <v>375</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
         <v>19</v>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="2">
         <v>386</v>
       </c>
-      <c r="C27" s="2" t="n">
+      <c r="C27" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
         <v>20</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="2">
         <v>405</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
         <v>21</v>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="2">
         <v>467</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
         <v>22</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="2">
         <v>451</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
         <v>23</v>
       </c>
-      <c r="B31" s="2" t="n">
+      <c r="B31" s="2">
         <v>418</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
         <v>24</v>
       </c>
-      <c r="B32" s="2" t="n">
+      <c r="B32" s="2">
         <v>408</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
         <v>25</v>
       </c>
-      <c r="B33" s="2" t="n">
+      <c r="B33" s="2">
         <v>388</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
         <v>26</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="2">
         <v>379</v>
       </c>
-      <c r="C34" s="2" t="n">
+      <c r="C34" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
         <v>27</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="2">
         <v>435</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
         <v>28</v>
       </c>
-      <c r="B36" s="2" t="n">
+      <c r="B36" s="2">
         <v>425</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
         <v>29</v>
       </c>
-      <c r="B37" s="2" t="n">
+      <c r="B37" s="2">
         <v>385</v>
       </c>
-      <c r="C37" s="2" t="n">
+      <c r="C37" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
         <v>30</v>
       </c>
-      <c r="B38" s="2" t="n">
+      <c r="B38" s="2">
         <v>403</v>
       </c>
-      <c r="C38" s="2" t="n">
+      <c r="C38" s="2">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5110,66 +6262,63 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A2:L28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>450</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5204,293 +6353,352 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>361</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <f aca="false">AVERAGE($B9:$B18)-30</f>
+      <c r="F9" s="2">
+        <f>AVERAGE($B9:$B18)-30</f>
         <v>332.8</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">MIN($B9:$B18)-30</f>
+      <c r="G9" s="2">
+        <f>MIN($B9:$B18)-30</f>
         <v>328</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,1)-30</f>
+      <c r="H9" s="2">
+        <f>QUARTILE($B9:$B18,1)-30</f>
         <v>330.25</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,2)-30</f>
+      <c r="I9" s="2">
+        <f>QUARTILE($B9:$B18,2)-30</f>
         <v>333.5</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,3)-30</f>
+      <c r="J9" s="2">
+        <f>QUARTILE($B9:$B18,3)-30</f>
         <v>335.75</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">MAX($B9:$B18)-30</f>
+      <c r="K9" s="2">
+        <f>MAX($B9:$B18)-30</f>
         <v>336</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <f aca="false">STDEV($B9:$B18)</f>
-        <v>3.0840089349921</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="L9" s="2">
+        <f>STDEV($B9:$B18)</f>
+        <v>3.0840089349921005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>366</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <f aca="false">AVERAGE($B19:$B28)-30</f>
+      <c r="F10" s="2">
+        <f>AVERAGE($B19:$B28)-30</f>
         <v>366</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">MIN($B19:$B28)-30</f>
+      <c r="G10" s="2">
+        <f>MIN($B19:$B28)-30</f>
         <v>345</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,1)-30</f>
+      <c r="H10" s="2">
+        <f>QUARTILE($B19:$B28,1)-30</f>
         <v>355.75</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,2)-30</f>
+      <c r="I10" s="2">
+        <f>QUARTILE($B19:$B28,2)-30</f>
         <v>365.5</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,3)-30</f>
+      <c r="J10" s="2">
+        <f>QUARTILE($B19:$B28,3)-30</f>
         <v>371.25</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">MAX($B19:$B28)-30</f>
+      <c r="K10" s="2">
+        <f>MAX($B19:$B28)-30</f>
         <v>403</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <f aca="false">STDEV($B19:$B28)</f>
-        <v>16.6199344830905</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="L10" s="2">
+        <f>STDEV($B19:$B28)</f>
+        <v>16.619934483090546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>366</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>359</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="E12">
+        <v>361</v>
+      </c>
+      <c r="F12">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>360</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="E13">
+        <v>366</v>
+      </c>
+      <c r="F13">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>366</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="E14">
+        <v>366</v>
+      </c>
+      <c r="F14">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>364</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="E15">
+        <v>359</v>
+      </c>
+      <c r="F15">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>363</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="E16">
+        <v>360</v>
+      </c>
+      <c r="F16">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>365</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="E17">
+        <v>366</v>
+      </c>
+      <c r="F17">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>358</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="E18">
+        <v>364</v>
+      </c>
+      <c r="F18">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>375</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="E19">
+        <v>363</v>
+      </c>
+      <c r="F19">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>379</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="E20">
+        <v>365</v>
+      </c>
+      <c r="F20">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>398</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="E21">
+        <v>358</v>
+      </c>
+      <c r="F21">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>408</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>100</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>15</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>393</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>100</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>16</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>402</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>100</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>17</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>388</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>100</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>18</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>385</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>100</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>19</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>433</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>100</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>20</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>399</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -5498,70 +6706,67 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:L58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>450</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5596,716 +6801,865 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>389</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <f aca="false">AVERAGE($B9:$B18)-30</f>
+      <c r="F9" s="2">
+        <f>AVERAGE($B9:$B18)-30</f>
         <v>362</v>
       </c>
-      <c r="G9" s="2" t="n">
-        <f aca="false">MIN($B9:$B18)-30</f>
+      <c r="G9" s="2">
+        <f>MIN($B9:$B18)-30</f>
         <v>356</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,1)-30</f>
+      <c r="H9" s="2">
+        <f>QUARTILE($B9:$B18,1)-30</f>
         <v>357.25</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,2)-30</f>
+      <c r="I9" s="2">
+        <f>QUARTILE($B9:$B18,2)-30</f>
         <v>358.5</v>
       </c>
-      <c r="J9" s="2" t="n">
-        <f aca="false">QUARTILE($B9:$B18,3)-30</f>
+      <c r="J9" s="2">
+        <f>QUARTILE($B9:$B18,3)-30</f>
         <v>366.5</v>
       </c>
-      <c r="K9" s="2" t="n">
-        <f aca="false">MAX($B9:$B18)-30</f>
+      <c r="K9" s="2">
+        <f>MAX($B9:$B18)-30</f>
         <v>375</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <f aca="false">STDEV($B9:$B18)</f>
-        <v>6.86375342732467</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="L9" s="2">
+        <f>STDEV($B9:$B18)</f>
+        <v>6.8637534273246672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>401</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10">
         <v>0</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>0.25</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <f aca="false">AVERAGE($B19:$B28)-30</f>
+      <c r="F10" s="2">
+        <f>AVERAGE($B19:$B28)-30</f>
         <v>370</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <f aca="false">MIN($B19:$B28)-30</f>
+      <c r="G10" s="2">
+        <f>MIN($B19:$B28)-30</f>
         <v>346</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,1)-30</f>
+      <c r="H10" s="2">
+        <f>QUARTILE($B19:$B28,1)-30</f>
         <v>353.25</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,2)-30</f>
+      <c r="I10" s="2">
+        <f>QUARTILE($B19:$B28,2)-30</f>
         <v>359</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <f aca="false">QUARTILE($B19:$B28,3)-30</f>
+      <c r="J10" s="2">
+        <f>QUARTILE($B19:$B28,3)-30</f>
         <v>375.5</v>
       </c>
-      <c r="K10" s="2" t="n">
-        <f aca="false">MAX($B19:$B28)-30</f>
+      <c r="K10" s="2">
+        <f>MAX($B19:$B28)-30</f>
         <v>425</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <f aca="false">STDEV($B19:$B28)</f>
-        <v>25.4907390590735</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="L10" s="2">
+        <f>STDEV($B19:$B28)</f>
+        <v>25.490739059073547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>392</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>0.5</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <f aca="false">AVERAGE($B29:$B38)-30</f>
+      <c r="F11" s="2">
+        <f>AVERAGE($B29:$B38)-30</f>
         <v>360.5</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <f aca="false">MIN($B29:$B38)-30</f>
+      <c r="G11" s="2">
+        <f>MIN($B29:$B38)-30</f>
         <v>348</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,1)-30</f>
+      <c r="H11" s="2">
+        <f>QUARTILE($B29:$B38,1)-30</f>
         <v>355.75</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,2)-30</f>
+      <c r="I11" s="2">
+        <f>QUARTILE($B29:$B38,2)-30</f>
         <v>361.5</v>
       </c>
-      <c r="J11" s="2" t="n">
-        <f aca="false">QUARTILE($B29:$B38,3)-30</f>
+      <c r="J11" s="2">
+        <f>QUARTILE($B29:$B38,3)-30</f>
         <v>364.25</v>
       </c>
-      <c r="K11" s="2" t="n">
-        <f aca="false">MAX($B29:$B38)-30</f>
+      <c r="K11" s="2">
+        <f>MAX($B29:$B38)-30</f>
         <v>373</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <f aca="false">STDEV($B29:$B38)</f>
-        <v>8.7337150043826</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="L11" s="2">
+        <f>STDEV($B29:$B38)</f>
+        <v>8.7337150043826011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>387</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>0.75</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <f aca="false">AVERAGE($B39:$B48)-30</f>
+      <c r="F12" s="2">
+        <f>AVERAGE($B39:$B48)-30</f>
         <v>369</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <f aca="false">MIN($B39:$B48)-30</f>
+      <c r="G12" s="2">
+        <f>MIN($B39:$B48)-30</f>
         <v>347</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,1)-30</f>
+      <c r="H12" s="2">
+        <f>QUARTILE($B39:$B48,1)-30</f>
         <v>360.25</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,2)-30</f>
+      <c r="I12" s="2">
+        <f>QUARTILE($B39:$B48,2)-30</f>
         <v>366.5</v>
       </c>
-      <c r="J12" s="2" t="n">
-        <f aca="false">QUARTILE($B39:$B48,3)-30</f>
+      <c r="J12" s="2">
+        <f>QUARTILE($B39:$B48,3)-30</f>
         <v>372.5</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <f aca="false">MAX($B39:$B48)-30</f>
+      <c r="K12" s="2">
+        <f>MAX($B39:$B48)-30</f>
         <v>413</v>
       </c>
-      <c r="L12" s="2" t="n">
-        <f aca="false">STDEV($B39:$B48)</f>
-        <v>17.6760981114171</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="L12" s="2">
+        <f>STDEV($B39:$B48)</f>
+        <v>17.676098111417136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>405</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <f aca="false">AVERAGE($B49:$B58)-30</f>
+      <c r="F13" s="2">
+        <f>AVERAGE($B49:$B58)-30</f>
         <v>359.6</v>
       </c>
-      <c r="G13" s="2" t="n">
-        <f aca="false">MIN($B49:$B58)-30</f>
+      <c r="G13" s="2">
+        <f>MIN($B49:$B58)-30</f>
         <v>342</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,1)-30</f>
+      <c r="H13" s="2">
+        <f>QUARTILE($B49:$B58,1)-30</f>
         <v>358.5</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,2)-30</f>
+      <c r="I13" s="2">
+        <f>QUARTILE($B49:$B58,2)-30</f>
         <v>361</v>
       </c>
-      <c r="J13" s="2" t="n">
-        <f aca="false">QUARTILE($B49:$B58,3)-30</f>
+      <c r="J13" s="2">
+        <f>QUARTILE($B49:$B58,3)-30</f>
         <v>363</v>
       </c>
-      <c r="K13" s="2" t="n">
-        <f aca="false">MAX($B49:$B58)-30</f>
+      <c r="K13" s="2">
+        <f>MAX($B49:$B58)-30</f>
         <v>368</v>
       </c>
-      <c r="L13" s="2" t="n">
-        <f aca="false">STDEV($B49:$B58)</f>
-        <v>7.74883503789082</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="L13" s="2">
+        <f>STDEV($B49:$B58)</f>
+        <v>7.7488350378908208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>386</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>386</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="E15">
+        <v>389</v>
+      </c>
+      <c r="F15">
+        <v>385</v>
+      </c>
+      <c r="G15">
+        <v>378</v>
+      </c>
+      <c r="H15">
+        <v>407</v>
+      </c>
+      <c r="I15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>398</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="E16">
+        <v>401</v>
+      </c>
+      <c r="F16">
+        <v>401</v>
+      </c>
+      <c r="G16">
+        <v>403</v>
+      </c>
+      <c r="H16">
+        <v>443</v>
+      </c>
+      <c r="I16">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>388</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="E17">
+        <v>392</v>
+      </c>
+      <c r="F17">
+        <v>393</v>
+      </c>
+      <c r="G17">
+        <v>395</v>
+      </c>
+      <c r="H17">
+        <v>396</v>
+      </c>
+      <c r="I17">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>388</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="E18">
+        <v>387</v>
+      </c>
+      <c r="F18">
+        <v>455</v>
+      </c>
+      <c r="G18">
+        <v>403</v>
+      </c>
+      <c r="H18">
+        <v>387</v>
+      </c>
+      <c r="I18">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>11</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>385</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="E19">
+        <v>405</v>
+      </c>
+      <c r="F19">
+        <v>384</v>
+      </c>
+      <c r="G19">
+        <v>392</v>
+      </c>
+      <c r="H19">
+        <v>390</v>
+      </c>
+      <c r="I19">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>401</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+      <c r="E20">
+        <v>386</v>
+      </c>
+      <c r="F20">
+        <v>407</v>
+      </c>
+      <c r="G20">
+        <v>378</v>
+      </c>
+      <c r="H20">
+        <v>391</v>
+      </c>
+      <c r="I20">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
         <v>13</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>393</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="E21">
+        <v>386</v>
+      </c>
+      <c r="F21">
+        <v>383</v>
+      </c>
+      <c r="G21">
+        <v>391</v>
+      </c>
+      <c r="H21">
+        <v>377</v>
+      </c>
+      <c r="I21">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
         <v>14</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>455</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+      <c r="E22">
+        <v>398</v>
+      </c>
+      <c r="F22">
+        <v>433</v>
+      </c>
+      <c r="G22">
+        <v>388</v>
+      </c>
+      <c r="H22">
+        <v>397</v>
+      </c>
+      <c r="I22">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>15</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>384</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="E23">
+        <v>388</v>
+      </c>
+      <c r="F23">
+        <v>383</v>
+      </c>
+      <c r="G23">
+        <v>385</v>
+      </c>
+      <c r="H23">
+        <v>398</v>
+      </c>
+      <c r="I23">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>16</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>407</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="E24">
+        <v>388</v>
+      </c>
+      <c r="F24">
+        <v>376</v>
+      </c>
+      <c r="G24">
+        <v>392</v>
+      </c>
+      <c r="H24">
+        <v>404</v>
+      </c>
+      <c r="I24">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>17</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>383</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>18</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>433</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>19</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>383</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>20</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>376</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>21</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>378</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29">
         <v>50</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>22</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>403</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30">
         <v>50</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>23</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>395</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31">
         <v>50</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>24</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>403</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32">
         <v>50</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>25</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>392</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33">
         <v>50</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>26</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>378</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34">
         <v>50</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>27</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>391</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35">
         <v>50</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>28</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>388</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36">
         <v>50</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="n">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>29</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>385</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37">
         <v>50</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="n">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>30</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>392</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38">
         <v>50</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="n">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>31</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>407</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39">
         <v>75</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="n">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>32</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>443</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40">
         <v>75</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="n">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>33</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>396</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41">
         <v>75</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>34</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>387</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42">
         <v>75</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>35</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>390</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43">
         <v>75</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>36</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>391</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44">
         <v>75</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="n">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>37</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>377</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45">
         <v>75</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="n">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>38</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>397</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46">
         <v>75</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="n">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>39</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>398</v>
       </c>
-      <c r="C47" s="0" t="n">
+      <c r="C47">
         <v>75</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="n">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>40</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>404</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48">
         <v>75</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="n">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
         <v>41</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49">
         <v>392</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49">
         <v>100</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="n">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
         <v>42</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50">
         <v>393</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50">
         <v>100</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="n">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
         <v>43</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51">
         <v>398</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51">
         <v>100</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="n">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
         <v>44</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52">
         <v>398</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52">
         <v>100</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="n">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
         <v>45</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53">
         <v>390</v>
       </c>
-      <c r="C53" s="0" t="n">
+      <c r="C53">
         <v>100</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="n">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
         <v>46</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54">
         <v>372</v>
       </c>
-      <c r="C54" s="0" t="n">
+      <c r="C54">
         <v>100</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="n">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
         <v>47</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55">
         <v>390</v>
       </c>
-      <c r="C55" s="0" t="n">
+      <c r="C55">
         <v>100</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="n">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
         <v>48</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56">
         <v>388</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56">
         <v>100</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="n">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
         <v>49</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57">
         <v>382</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57">
         <v>100</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="n">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
         <v>50</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58">
         <v>393</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
